--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_007.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_007.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>18.23653988662383</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>21.50904855381905</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.19370111212999</v>
+        <v>19.51645564237018</v>
       </c>
       <c r="F2" t="n">
-        <v>24.26687506484133</v>
+        <v>53.13022158370452</v>
       </c>
       <c r="G2" t="n">
-        <v>29.52432070126511</v>
+        <v>26.51368943687787</v>
       </c>
       <c r="H2" t="n">
-        <v>20.13065054532726</v>
+        <v>3.848218680247999</v>
       </c>
       <c r="I2" t="n">
-        <v>5.680697781951739</v>
+        <v>48.83188027860142</v>
       </c>
       <c r="J2" t="n">
-        <v>19.9032931017741</v>
+        <v>361.1770745638932</v>
       </c>
       <c r="K2" t="n">
-        <v>57.89247833801821</v>
+        <v>89.3500922900098</v>
       </c>
       <c r="L2" t="n">
-        <v>51.83626842451102</v>
+        <v>153.9862805518603</v>
       </c>
       <c r="M2" t="n">
-        <v>114.6654680185785</v>
+        <v>14.47169347622774</v>
       </c>
       <c r="N2" t="n">
-        <v>173.0940788493298</v>
+        <v>256.0576603872443</v>
       </c>
       <c r="O2" t="n">
-        <v>48.87467824870291</v>
+        <v>37.82752207581799</v>
       </c>
       <c r="P2" t="n">
-        <v>40.19899401086285</v>
+        <v>131.0231214770769</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.49101603615082</v>
+        <v>49.25741609077373</v>
       </c>
       <c r="R2" t="n">
-        <v>48.86868931596761</v>
+        <v>199.0964877030092</v>
       </c>
       <c r="S2" t="n">
-        <v>61.62580476545187</v>
+        <v>55.40962112850737</v>
       </c>
       <c r="T2" t="n">
-        <v>38.23046679220694</v>
+        <v>47.66497449069881</v>
       </c>
       <c r="U2" t="n">
-        <v>41.61907047922116</v>
+        <v>43.40133043604023</v>
       </c>
       <c r="V2" t="n">
-        <v>48.22869590558803</v>
+        <v>67.20781388648103</v>
       </c>
       <c r="W2" t="n">
-        <v>90.75884703148439</v>
+        <v>129.5949858964357</v>
       </c>
       <c r="X2" t="n">
-        <v>51.23931135240234</v>
+        <v>58.98870754600075</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.0597450626824</v>
+        <v>48.66423771453358</v>
       </c>
       <c r="Z2" t="n">
-        <v>50.72063024069932</v>
+        <v>68.0541258713386</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.69793798541153</v>
+        <v>68.71417886927509</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.16762277506061</v>
+        <v>68.57732221976309</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.22344421396367</v>
+        <v>91.94992219412778</v>
       </c>
       <c r="AD2" t="n">
-        <v>187.7444359484209</v>
+        <v>201.6448574000923</v>
       </c>
       <c r="AE2" t="n">
-        <v>148.5412893218701</v>
+        <v>72.24278981340977</v>
       </c>
       <c r="AF2" t="n">
-        <v>103.6472058078196</v>
+        <v>154.083475481553</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.48403448346239</v>
+        <v>57.22519413387973</v>
       </c>
       <c r="AH2" t="n">
-        <v>129.6158921751626</v>
+        <v>64.66348579647898</v>
       </c>
       <c r="AI2" t="n">
-        <v>51.11713067737463</v>
+        <v>140.9506988563734</v>
       </c>
       <c r="AJ2" t="n">
-        <v>102.139741387212</v>
+        <v>161.7614093551153</v>
       </c>
       <c r="AK2" t="n">
-        <v>90.54776788277334</v>
+        <v>50.85134108414097</v>
       </c>
       <c r="AL2" t="n">
-        <v>21.378585914142</v>
+        <v>59.95059149815511</v>
       </c>
       <c r="AM2" t="n">
-        <v>46.02731238755528</v>
+        <v>36.34422773772415</v>
       </c>
       <c r="AN2" t="n">
-        <v>37.77427213661465</v>
+        <v>32.9728907228978</v>
       </c>
       <c r="AO2" t="n">
-        <v>27.97511404612207</v>
+        <v>20.91711271672686</v>
       </c>
       <c r="AP2" t="n">
-        <v>23.58192468009731</v>
+        <v>30.76701637752236</v>
       </c>
       <c r="AQ2" t="n">
-        <v>20.30329006555799</v>
+        <v>10.54587374615452</v>
       </c>
       <c r="AR2" t="n">
-        <v>28.02961970363503</v>
+        <v>21.91524959220359</v>
       </c>
       <c r="AS2" t="n">
-        <v>30.63400462794619</v>
+        <v>36.73033963613866</v>
       </c>
       <c r="AT2" t="n">
-        <v>18.21501285595566</v>
+        <v>27.6692718959211</v>
       </c>
       <c r="AU2" t="n">
-        <v>20.51995446026788</v>
+        <v>11.3833254041602</v>
       </c>
       <c r="AV2" t="n">
-        <v>22.14751873690671</v>
+        <v>19.95635694665233</v>
       </c>
       <c r="AW2" t="n">
-        <v>27.78407483343236</v>
+        <v>21.93372121652752</v>
       </c>
       <c r="AX2" t="n">
-        <v>24.78788358961091</v>
+        <v>24.70506324987183</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.022194416626923</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.879197207709835</v>
+        <v>3.195229866633197</v>
       </c>
       <c r="E3" t="n">
-        <v>2.788836937797411</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.941146481790732</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.021185266183569</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.817123007103476</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.875719629377677</v>
+        <v>6.314053524889525</v>
       </c>
       <c r="J3" t="n">
-        <v>8.778601157285244</v>
+        <v>2.56099526712977</v>
       </c>
       <c r="K3" t="n">
-        <v>4.193627421722682</v>
+        <v>1.727311844749132</v>
       </c>
       <c r="L3" t="n">
-        <v>2.771235564694307</v>
+        <v>2.743219608883639</v>
       </c>
       <c r="M3" t="n">
-        <v>3.716208072487283</v>
+        <v>2.434001174859254</v>
       </c>
       <c r="N3" t="n">
-        <v>8.20121966553948</v>
+        <v>2.874090565692036</v>
       </c>
       <c r="O3" t="n">
-        <v>5.801583741237414</v>
+        <v>2.589950523496066</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8811980862308877</v>
+        <v>1.543385422339675</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.15740831312212</v>
+        <v>5.505777683377802</v>
       </c>
       <c r="R3" t="n">
-        <v>7.826800569250665</v>
+        <v>3.467610308866742</v>
       </c>
       <c r="S3" t="n">
-        <v>4.32874901224287</v>
+        <v>6.888396413157987</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3645261671829036</v>
+        <v>2.53714409351918</v>
       </c>
       <c r="U3" t="n">
-        <v>5.367296186217453</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.684727743681838</v>
+        <v>3.42351677294327</v>
       </c>
       <c r="W3" t="n">
-        <v>4.739884733194994</v>
+        <v>6.132240370603733</v>
       </c>
       <c r="X3" t="n">
-        <v>11.68493602608554</v>
+        <v>1.88357456273156</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.808651111468846</v>
+        <v>5.164466778442245</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.807685437296069</v>
+        <v>5.850852079732074</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.671453940656476</v>
+        <v>4.263862919202033</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.678256923642599</v>
+        <v>4.069051940602654</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.176148159617671</v>
+        <v>5.644295384586053</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.744277345876627</v>
+        <v>3.603353359378552</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.290795094124615</v>
+        <v>2.948488674369991</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.1725568787071</v>
+        <v>7.165774078373945</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.278203889386666</v>
+        <v>4.041002664879778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.994921711407467</v>
+        <v>3.104632367634347</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.692132814713369</v>
+        <v>5.98933592609639</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.591905589111525</v>
+        <v>5.010423617814205</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.504980575443453</v>
+        <v>3.247323389872973</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.924150940208367</v>
+        <v>7.407187325961937</v>
       </c>
       <c r="AM3" t="n">
-        <v>10.06416310203088</v>
+        <v>5.585040255432113</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.791822534183309</v>
+        <v>3.727552970916064</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.330182791785701</v>
+        <v>2.041852804453137</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.369300135541596</v>
+        <v>3.606431127470123</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.747203223193763</v>
+        <v>4.664920837744493</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.813122946699522</v>
+        <v>5.676839161917476</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.470638829481298</v>
+        <v>2.524828077738356</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.52516742047143</v>
+        <v>2.93081045330356</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.923756801700874</v>
+        <v>3.039262827130249</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.614701884850609</v>
+        <v>2.180082292061316</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.473973233189096</v>
+        <v>3.598936462547466</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.110032851356621</v>
+        <v>2.163260465642785</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.95598516892701</v>
+        <v>9.326723962425785</v>
       </c>
       <c r="D4" t="n">
-        <v>11.07465875497794</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.04992335381662</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>92.81709428209444</v>
+        <v>22.81242354738952</v>
       </c>
       <c r="G4" t="n">
-        <v>17.35595492968006</v>
+        <v>3.772158245447729</v>
       </c>
       <c r="H4" t="n">
-        <v>175.3111854423795</v>
+        <v>3.953988339979697</v>
       </c>
       <c r="I4" t="n">
-        <v>131.1796162935267</v>
+        <v>13.80621368216134</v>
       </c>
       <c r="J4" t="n">
-        <v>30.57674703502523</v>
+        <v>93.22389446754319</v>
       </c>
       <c r="K4" t="n">
-        <v>4.82242921972097</v>
+        <v>44.30961990512525</v>
       </c>
       <c r="L4" t="n">
-        <v>163.9237187833517</v>
+        <v>62.22261018238333</v>
       </c>
       <c r="M4" t="n">
-        <v>34.30622575120478</v>
+        <v>19.59803927952385</v>
       </c>
       <c r="N4" t="n">
-        <v>9.891544491689654</v>
+        <v>2.382362424643313</v>
       </c>
       <c r="O4" t="n">
-        <v>66.65696120144081</v>
+        <v>119.2276705853693</v>
       </c>
       <c r="P4" t="n">
-        <v>29.13272906158257</v>
+        <v>26.95267512256383</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.21690566978799</v>
+        <v>12.68745658266146</v>
       </c>
       <c r="R4" t="n">
-        <v>101.6640270138545</v>
+        <v>36.43758901503776</v>
       </c>
       <c r="S4" t="n">
-        <v>25.9984205573956</v>
+        <v>66.72724391734174</v>
       </c>
       <c r="T4" t="n">
-        <v>60.69880547191163</v>
+        <v>76.25382955894648</v>
       </c>
       <c r="U4" t="n">
-        <v>40.56583372401772</v>
+        <v>67.03425718621062</v>
       </c>
       <c r="V4" t="n">
-        <v>53.53991426449633</v>
+        <v>263.1209885336283</v>
       </c>
       <c r="W4" t="n">
-        <v>64.77888774526217</v>
+        <v>62.4116788782312</v>
       </c>
       <c r="X4" t="n">
-        <v>67.34017928131027</v>
+        <v>46.75793047217339</v>
       </c>
       <c r="Y4" t="n">
-        <v>131.3591391816926</v>
+        <v>78.60660566549657</v>
       </c>
       <c r="Z4" t="n">
-        <v>61.62058768955876</v>
+        <v>53.89225920147272</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.39121918191945</v>
+        <v>47.87211245501397</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.11863595580118</v>
+        <v>62.74274026615241</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.998954569695</v>
+        <v>97.6084257172798</v>
       </c>
       <c r="AD4" t="n">
-        <v>78.91427323175085</v>
+        <v>87.91326738261311</v>
       </c>
       <c r="AE4" t="n">
-        <v>25.49365390303143</v>
+        <v>120.9008869440778</v>
       </c>
       <c r="AF4" t="n">
-        <v>83.49851918978062</v>
+        <v>93.5230070045091</v>
       </c>
       <c r="AG4" t="n">
-        <v>76.96681155925697</v>
+        <v>45.29115932090244</v>
       </c>
       <c r="AH4" t="n">
-        <v>61.66972097276287</v>
+        <v>26.34139342759275</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.884507866626383</v>
+        <v>104.8015448222453</v>
       </c>
       <c r="AJ4" t="n">
-        <v>73.34052468803937</v>
+        <v>74.284318077507</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.14860967479094</v>
+        <v>34.5656924708939</v>
       </c>
       <c r="AL4" t="n">
-        <v>35.99976226314619</v>
+        <v>49.81491933705602</v>
       </c>
       <c r="AM4" t="n">
-        <v>13.51108839643057</v>
+        <v>48.05192940405464</v>
       </c>
       <c r="AN4" t="n">
-        <v>26.93126773561287</v>
+        <v>20.47660897356534</v>
       </c>
       <c r="AO4" t="n">
-        <v>19.45353595906848</v>
+        <v>10.76048134043683</v>
       </c>
       <c r="AP4" t="n">
-        <v>21.07217813718454</v>
+        <v>15.87957012451689</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13.90385370084186</v>
+        <v>34.6958693202766</v>
       </c>
       <c r="AR4" t="n">
-        <v>16.2793371593113</v>
+        <v>35.20318431736047</v>
       </c>
       <c r="AS4" t="n">
-        <v>10.71224671715443</v>
+        <v>15.47930192477667</v>
       </c>
       <c r="AT4" t="n">
-        <v>16.27477658675264</v>
+        <v>9.116441441377974</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.146476411364323</v>
+        <v>10.03492087420406</v>
       </c>
       <c r="AV4" t="n">
-        <v>5.707645438090604</v>
+        <v>16.07500552844847</v>
       </c>
       <c r="AW4" t="n">
-        <v>10.57586011874829</v>
+        <v>9.370967803435068</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.86893224506876</v>
+        <v>9.228120361174188</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>53.60420669613483</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.26021552259593</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.36873013198004</v>
+        <v>63.86057906048399</v>
       </c>
       <c r="F5" t="n">
-        <v>17.54213525181156</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>40.23071184157414</v>
+        <v>39.97589230117405</v>
       </c>
       <c r="H5" t="n">
-        <v>11.01588132145096</v>
+        <v>102.697845517946</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>20.65482752917153</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>12.76284198543864</v>
+        <v>60.98857351059362</v>
       </c>
       <c r="L5" t="n">
-        <v>80.7432968854614</v>
+        <v>131.7049315234783</v>
       </c>
       <c r="M5" t="n">
-        <v>110.2992651958826</v>
+        <v>9.782845150099515</v>
       </c>
       <c r="N5" t="n">
-        <v>67.15424271394903</v>
+        <v>51.30823931752526</v>
       </c>
       <c r="O5" t="n">
-        <v>66.33448117186339</v>
+        <v>59.11815869017166</v>
       </c>
       <c r="P5" t="n">
-        <v>36.74331027907181</v>
+        <v>79.70072268356903</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.37420365343003</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>68.09605510988851</v>
+        <v>43.93728962319969</v>
       </c>
       <c r="S5" t="n">
-        <v>43.60278616383452</v>
+        <v>13.94747572226695</v>
       </c>
       <c r="T5" t="n">
-        <v>45.83799414365679</v>
+        <v>48.56899366296658</v>
       </c>
       <c r="U5" t="n">
-        <v>31.97313129243763</v>
+        <v>49.07560088348695</v>
       </c>
       <c r="V5" t="n">
-        <v>47.46765170063338</v>
+        <v>63.97558034147305</v>
       </c>
       <c r="W5" t="n">
-        <v>49.17738665452165</v>
+        <v>58.29453506369812</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>21.27706726353876</v>
       </c>
       <c r="Y5" t="n">
-        <v>40.20618168418985</v>
+        <v>170.2083656087524</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.93078265959156</v>
+        <v>28.93114574925764</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.67193775039451</v>
+        <v>81.20739706136588</v>
       </c>
       <c r="AB5" t="n">
-        <v>61.11760284481598</v>
+        <v>39.61792451904013</v>
       </c>
       <c r="AC5" t="n">
-        <v>25.88078422799757</v>
+        <v>87.68050144304945</v>
       </c>
       <c r="AD5" t="n">
-        <v>28.4447875755821</v>
+        <v>10.17932781380438</v>
       </c>
       <c r="AE5" t="n">
-        <v>13.51370358198431</v>
+        <v>26.68721769480067</v>
       </c>
       <c r="AF5" t="n">
-        <v>27.969747525976</v>
+        <v>61.36041405518235</v>
       </c>
       <c r="AG5" t="n">
-        <v>150.343634232521</v>
+        <v>60.55879660705065</v>
       </c>
       <c r="AH5" t="n">
-        <v>64.05482421006764</v>
+        <v>13.95328940540475</v>
       </c>
       <c r="AI5" t="n">
-        <v>54.11265867390326</v>
+        <v>38.54334488636857</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19.16980998481153</v>
+        <v>18.62438246761705</v>
       </c>
       <c r="AK5" t="n">
-        <v>8.737350373554534</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>38.45389357008762</v>
+        <v>19.2121925656867</v>
       </c>
       <c r="AM5" t="n">
-        <v>32.15227016232939</v>
+        <v>21.50065017699178</v>
       </c>
       <c r="AN5" t="n">
-        <v>32.53225521802073</v>
+        <v>5.87686342223912</v>
       </c>
       <c r="AO5" t="n">
-        <v>25.70673408934083</v>
+        <v>20.22631431818688</v>
       </c>
       <c r="AP5" t="n">
-        <v>31.85787342643875</v>
+        <v>3.563304970255581</v>
       </c>
       <c r="AQ5" t="n">
-        <v>22.40779638831492</v>
+        <v>28.02908220565473</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.375448300578803</v>
+        <v>47.15520184456408</v>
       </c>
       <c r="AS5" t="n">
-        <v>17.24138567560141</v>
+        <v>3.497517873285098</v>
       </c>
       <c r="AT5" t="n">
-        <v>10.13048529927776</v>
+        <v>2.803535625590304</v>
       </c>
       <c r="AU5" t="n">
-        <v>35.45302074431861</v>
+        <v>26.55914153573599</v>
       </c>
       <c r="AV5" t="n">
-        <v>13.28944848003967</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>28.29527989860879</v>
+        <v>25.38692967418578</v>
       </c>
       <c r="AX5" t="n">
-        <v>22.17313824217758</v>
+        <v>7.149036358423629</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.365173949175976</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.560956535522953</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8458451639506608</v>
+        <v>4.592154839020942</v>
       </c>
       <c r="F6" t="n">
-        <v>8.984079525722024</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22.39530312804781</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.242945761940838</v>
+        <v>37.91020208508893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.24759312200061</v>
       </c>
       <c r="J6" t="n">
-        <v>12.8638797877011</v>
+        <v>17.70590624291934</v>
       </c>
       <c r="K6" t="n">
-        <v>14.21394707193383</v>
+        <v>54.12844779202793</v>
       </c>
       <c r="L6" t="n">
-        <v>22.08915065557186</v>
+        <v>23.58264825927002</v>
       </c>
       <c r="M6" t="n">
-        <v>36.43901951603303</v>
+        <v>13.50269610758177</v>
       </c>
       <c r="N6" t="n">
-        <v>15.25294754847814</v>
+        <v>52.12659080323211</v>
       </c>
       <c r="O6" t="n">
-        <v>14.24670875442906</v>
+        <v>30.66968538372421</v>
       </c>
       <c r="P6" t="n">
-        <v>8.003284951704787</v>
+        <v>28.10639311430667</v>
       </c>
       <c r="Q6" t="n">
-        <v>40.5224131490234</v>
+        <v>37.97715777616344</v>
       </c>
       <c r="R6" t="n">
-        <v>10.12997085046182</v>
+        <v>18.99178235759347</v>
       </c>
       <c r="S6" t="n">
-        <v>16.01483776573388</v>
+        <v>27.9306586299296</v>
       </c>
       <c r="T6" t="n">
-        <v>21.53321130830227</v>
+        <v>34.34335588917178</v>
       </c>
       <c r="U6" t="n">
-        <v>21.58809498523386</v>
+        <v>12.4489981204519</v>
       </c>
       <c r="V6" t="n">
-        <v>8.715824332174417</v>
+        <v>21.92106581589755</v>
       </c>
       <c r="W6" t="n">
-        <v>19.47917629049934</v>
+        <v>32.46098511598672</v>
       </c>
       <c r="X6" t="n">
-        <v>15.88473445094737</v>
+        <v>17.0783223150588</v>
       </c>
       <c r="Y6" t="n">
-        <v>25.60298632086912</v>
+        <v>7.506142584072829</v>
       </c>
       <c r="Z6" t="n">
-        <v>32.87611864421397</v>
+        <v>29.67474844821099</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.345516138087788</v>
+        <v>15.14489407587795</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.76142907736624</v>
+        <v>23.74946090541079</v>
       </c>
       <c r="AC6" t="n">
-        <v>29.27568927757674</v>
+        <v>26.12342430060615</v>
       </c>
       <c r="AD6" t="n">
-        <v>20.54564228187381</v>
+        <v>6.915211013150544</v>
       </c>
       <c r="AE6" t="n">
-        <v>7.479455540443343</v>
+        <v>29.54925726356116</v>
       </c>
       <c r="AF6" t="n">
-        <v>17.96202504575396</v>
+        <v>26.45507899684246</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.32648448956614</v>
+        <v>15.08501148778475</v>
       </c>
       <c r="AH6" t="n">
-        <v>10.30383081005148</v>
+        <v>14.22289130112829</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.927604720237827</v>
+        <v>11.0272380492701</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.348142326592471</v>
+        <v>4.281075121439854</v>
       </c>
       <c r="AK6" t="n">
-        <v>5.462312882278903</v>
+        <v>3.284674109603868</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.955115416593424</v>
+        <v>9.556045931614189</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.573422331738073</v>
+        <v>4.263453604970635</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.25170267364674</v>
+        <v>6.597605216827038</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.136458175536359</v>
+        <v>1.095657356784358</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.395499647696698</v>
+        <v>2.387564183362336</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.584912454630904</v>
+        <v>4.079191492072573</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.509047541291388</v>
+        <v>6.0781747683202</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.887764380558076</v>
+        <v>6.236321710931501</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.835483438086173</v>
+        <v>11.46275698581938</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.877614645937914</v>
+        <v>1.987196554689384</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.953907194119344</v>
+        <v>1.225611732097963</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.4707373616621781</v>
+        <v>1.972200759619327</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.3100308338301</v>
+        <v>2.66157134234824</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>12.90386460123714</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>16.16975690252881</v>
+        <v>6.198961249771979</v>
       </c>
       <c r="E7" t="n">
-        <v>5.004721551820674</v>
+        <v>18.32769437033233</v>
       </c>
       <c r="F7" t="n">
-        <v>7.056656010465698</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>35.27497861693594</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.062540555689855</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8.179700358172951</v>
+        <v>7.264357077662737</v>
       </c>
       <c r="J7" t="n">
-        <v>73.84246391102234</v>
+        <v>30.23856861208144</v>
       </c>
       <c r="K7" t="n">
-        <v>47.44252888205211</v>
+        <v>32.05940648916324</v>
       </c>
       <c r="L7" t="n">
-        <v>123.9026531497422</v>
+        <v>47.935537725129</v>
       </c>
       <c r="M7" t="n">
-        <v>15.14744618646465</v>
+        <v>24.79142162557255</v>
       </c>
       <c r="N7" t="n">
-        <v>46.7144070495814</v>
+        <v>47.51296082118346</v>
       </c>
       <c r="O7" t="n">
-        <v>81.59265539831772</v>
+        <v>39.70614737396341</v>
       </c>
       <c r="P7" t="n">
-        <v>9.188622639268893</v>
+        <v>25.61072324968294</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.36223833814346</v>
+        <v>121.4120580910257</v>
       </c>
       <c r="R7" t="n">
-        <v>59.03261647703167</v>
+        <v>72.96581446887743</v>
       </c>
       <c r="S7" t="n">
-        <v>7.162136693561578</v>
+        <v>27.12764466839812</v>
       </c>
       <c r="T7" t="n">
-        <v>62.61363883467928</v>
+        <v>39.60485639801783</v>
       </c>
       <c r="U7" t="n">
-        <v>44.88703011963265</v>
+        <v>40.82097176750885</v>
       </c>
       <c r="V7" t="n">
-        <v>41.04758085103533</v>
+        <v>13.73229868415694</v>
       </c>
       <c r="W7" t="n">
-        <v>2.343670990080255</v>
+        <v>7.376057886923664</v>
       </c>
       <c r="X7" t="n">
-        <v>15.58035536444784</v>
+        <v>43.17320730718647</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.351155724533023</v>
+        <v>20.19498663968551</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>13.59847252197634</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.54549535394951</v>
+        <v>12.63670250582763</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.388748894531416</v>
+        <v>25.84479217873811</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.65589152014488</v>
+        <v>10.62925774867758</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.870137439454111</v>
+        <v>4.016850145407089</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>6.329282079747284</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.90127931707908</v>
+        <v>15.1538541419189</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.993078263969496</v>
+        <v>28.39177250860926</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.01807674060883</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.1422472341870465</v>
+        <v>35.19580049379379</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.50904912987906</v>
+        <v>6.234829083413075</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>19.60835822418794</v>
       </c>
       <c r="AL7" t="n">
-        <v>17.22895792156568</v>
+        <v>5.542802758297385</v>
       </c>
       <c r="AM7" t="n">
-        <v>4.734465327924212</v>
+        <v>7.027467925567343</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.64589825627495</v>
+        <v>2.559279446731131</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.03504273590217</v>
+        <v>14.78537079122621</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>0.7537233706382909</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.09884274089763</v>
+        <v>16.35565005677219</v>
       </c>
       <c r="AR7" t="n">
-        <v>13.40407406178657</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>4.790690903559613</v>
       </c>
       <c r="AT7" t="n">
-        <v>14.17955748411647</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.595352831400294</v>
+        <v>5.510664270066602</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>1.205172947046608</v>
       </c>
       <c r="AW7" t="n">
-        <v>12.95325657120836</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>11.85445839424775</v>
+        <v>4.7207072890867</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>16.55743706034146</v>
+        <v>24.59756106672926</v>
       </c>
       <c r="D8" t="n">
-        <v>22.307011689207</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>18.05965358709116</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>28.07122712960657</v>
+        <v>22.26019464760738</v>
       </c>
       <c r="G8" t="n">
-        <v>17.39508501824931</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>96.00644737874802</v>
+        <v>28.44517763384847</v>
       </c>
       <c r="I8" t="n">
-        <v>86.33636516064311</v>
+        <v>18.70339900589579</v>
       </c>
       <c r="J8" t="n">
-        <v>9.969991881918471</v>
+        <v>26.19941996928413</v>
       </c>
       <c r="K8" t="n">
-        <v>23.58464782189336</v>
+        <v>38.8013063607975</v>
       </c>
       <c r="L8" t="n">
-        <v>165.7542105126531</v>
+        <v>63.00820824797128</v>
       </c>
       <c r="M8" t="n">
-        <v>91.65534585748304</v>
+        <v>116.7329509824674</v>
       </c>
       <c r="N8" t="n">
-        <v>96.72577727938803</v>
+        <v>118.0592762553181</v>
       </c>
       <c r="O8" t="n">
-        <v>199.3820987297086</v>
+        <v>133.4272640169495</v>
       </c>
       <c r="P8" t="n">
-        <v>53.83090348508009</v>
+        <v>38.38936040838986</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.72550273362283</v>
+        <v>15.41386278127554</v>
       </c>
       <c r="R8" t="n">
-        <v>54.80329468184975</v>
+        <v>39.02930874339352</v>
       </c>
       <c r="S8" t="n">
-        <v>36.92681015851961</v>
+        <v>111.8458154284259</v>
       </c>
       <c r="T8" t="n">
-        <v>32.37340240042352</v>
+        <v>33.06329689103111</v>
       </c>
       <c r="U8" t="n">
-        <v>50.27933322173078</v>
+        <v>35.78566934157823</v>
       </c>
       <c r="V8" t="n">
-        <v>103.1255352443704</v>
+        <v>49.39040084038269</v>
       </c>
       <c r="W8" t="n">
-        <v>80.88777045285323</v>
+        <v>42.70041283902253</v>
       </c>
       <c r="X8" t="n">
-        <v>52.29471843072352</v>
+        <v>107.9790138589486</v>
       </c>
       <c r="Y8" t="n">
-        <v>69.58229607352773</v>
+        <v>71.96028880914066</v>
       </c>
       <c r="Z8" t="n">
-        <v>111.2129822431085</v>
+        <v>101.2528212773926</v>
       </c>
       <c r="AA8" t="n">
-        <v>40.73540342406004</v>
+        <v>114.0142045010418</v>
       </c>
       <c r="AB8" t="n">
-        <v>118.8541507202731</v>
+        <v>55.71759120600568</v>
       </c>
       <c r="AC8" t="n">
-        <v>157.3004767912634</v>
+        <v>122.3958745585188</v>
       </c>
       <c r="AD8" t="n">
-        <v>89.94362343664464</v>
+        <v>100.8385930966346</v>
       </c>
       <c r="AE8" t="n">
-        <v>60.06449917450352</v>
+        <v>7.899961927807279</v>
       </c>
       <c r="AF8" t="n">
-        <v>139.4523410831647</v>
+        <v>139.6594862391358</v>
       </c>
       <c r="AG8" t="n">
-        <v>82.72124793891223</v>
+        <v>43.74209962175766</v>
       </c>
       <c r="AH8" t="n">
-        <v>219.673619330612</v>
+        <v>74.3604470749641</v>
       </c>
       <c r="AI8" t="n">
-        <v>83.922486330989</v>
+        <v>99.769588162269</v>
       </c>
       <c r="AJ8" t="n">
-        <v>44.6750799506225</v>
+        <v>51.93690885804338</v>
       </c>
       <c r="AK8" t="n">
-        <v>30.26273743545698</v>
+        <v>35.53132885317234</v>
       </c>
       <c r="AL8" t="n">
-        <v>48.33044390924584</v>
+        <v>59.53811129044388</v>
       </c>
       <c r="AM8" t="n">
-        <v>81.26047797377896</v>
+        <v>104.2114526625398</v>
       </c>
       <c r="AN8" t="n">
-        <v>38.17959619568219</v>
+        <v>34.28084545841136</v>
       </c>
       <c r="AO8" t="n">
-        <v>28.87108435934918</v>
+        <v>33.00829179407642</v>
       </c>
       <c r="AP8" t="n">
-        <v>9.732690960981815</v>
+        <v>25.72192599195633</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14.04390143441948</v>
+        <v>36.34676203309846</v>
       </c>
       <c r="AR8" t="n">
-        <v>22.73567460711664</v>
+        <v>26.52953144804281</v>
       </c>
       <c r="AS8" t="n">
-        <v>12.04194685523754</v>
+        <v>23.22299454914022</v>
       </c>
       <c r="AT8" t="n">
-        <v>13.04460822036684</v>
+        <v>19.89016393123583</v>
       </c>
       <c r="AU8" t="n">
-        <v>21.309042325546</v>
+        <v>26.58281552989226</v>
       </c>
       <c r="AV8" t="n">
-        <v>24.51768338101887</v>
+        <v>9.170690906432968</v>
       </c>
       <c r="AW8" t="n">
-        <v>18.28201670970388</v>
+        <v>28.79012314609998</v>
       </c>
       <c r="AX8" t="n">
-        <v>19.56901327455264</v>
+        <v>21.26276680864435</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>4.695355702876626</v>
+        <v>1.158737934353125</v>
       </c>
       <c r="D9" t="n">
-        <v>2.503941950454239</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.314617476417133</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5743596626309225</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>8.093803607765544</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.607423989151804</v>
+        <v>3.665654453673622</v>
       </c>
       <c r="I9" t="n">
-        <v>3.211372055998949</v>
+        <v>3.585785449359342</v>
       </c>
       <c r="J9" t="n">
-        <v>4.378727313364293</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1.4480306308909</v>
+        <v>0.7602456295176928</v>
       </c>
       <c r="L9" t="n">
-        <v>3.785612778797497</v>
+        <v>0.3357037020287071</v>
       </c>
       <c r="M9" t="n">
-        <v>20.58847417190734</v>
+        <v>3.487284437424169</v>
       </c>
       <c r="N9" t="n">
-        <v>4.227097469938539</v>
+        <v>7.585161382654901</v>
       </c>
       <c r="O9" t="n">
-        <v>4.2949059716983</v>
+        <v>8.140481161923951</v>
       </c>
       <c r="P9" t="n">
-        <v>2.670040685671208</v>
+        <v>1.320974611511518</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.425883235556903</v>
+        <v>7.221386139693372</v>
       </c>
       <c r="R9" t="n">
-        <v>2.138533097003311</v>
+        <v>3.666527313285163</v>
       </c>
       <c r="S9" t="n">
-        <v>4.052964466541155</v>
+        <v>4.031493324575158</v>
       </c>
       <c r="T9" t="n">
-        <v>3.392523770079025</v>
+        <v>2.897977088932583</v>
       </c>
       <c r="U9" t="n">
-        <v>3.185556534877342</v>
+        <v>4.216275080505518</v>
       </c>
       <c r="V9" t="n">
-        <v>2.686618361786532</v>
+        <v>6.074094873246323</v>
       </c>
       <c r="W9" t="n">
-        <v>1.882949430204402</v>
+        <v>1.521548802334724</v>
       </c>
       <c r="X9" t="n">
-        <v>3.488807010478985</v>
+        <v>4.409721635046951</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.309251753432813</v>
+        <v>7.190884675206759</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.537171159496835</v>
+        <v>6.403523897782919</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.063529000113194</v>
+        <v>4.186759730782899</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.61192934967681</v>
+        <v>4.336687828564123</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.447340503482936</v>
+        <v>5.654757505664007</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.712186300011136</v>
+        <v>8.741662658486129</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.989487159643495</v>
+        <v>9.407639417502075</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.121055934031714</v>
+        <v>3.631770181837808</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.12876789934496</v>
+        <v>5.648662599270476</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.554747490366923</v>
+        <v>6.498906052530194</v>
       </c>
       <c r="AI9" t="n">
-        <v>12.70317277349046</v>
+        <v>2.781407826573441</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.156015114131756</v>
+        <v>4.576990522296505</v>
       </c>
       <c r="AK9" t="n">
-        <v>7.261157791293833</v>
+        <v>6.269065031254191</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.255974805455542</v>
+        <v>2.98135511127609</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.975033599174266</v>
+        <v>4.931163538445011</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.29783642203025</v>
+        <v>4.301259736737968</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.108723987697577</v>
+        <v>4.30640132744671</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>5.097738533187457</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.278682527334803</v>
+        <v>3.2532623166258</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.862489116192751</v>
+        <v>0.7184560172720456</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.172436430535969</v>
+        <v>5.303728049673617</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.958903322385232</v>
+        <v>3.621448467236336</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.48855061124341</v>
+        <v>3.406892693210666</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.287460709130011</v>
+        <v>1.938814738386687</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.452608275680022</v>
+        <v>2.609468984505988</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.924822986462063</v>
+        <v>1.864859423875629</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>13.48556381129099</v>
+        <v>14.16232886294169</v>
       </c>
       <c r="D10" t="n">
-        <v>10.12925629305297</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>10.48044481412873</v>
+        <v>3.668901109009366</v>
       </c>
       <c r="F10" t="n">
-        <v>14.05708826571821</v>
+        <v>14.17617457122096</v>
       </c>
       <c r="G10" t="n">
-        <v>8.174093781028706</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>62.17329610723597</v>
+        <v>13.38877587789676</v>
       </c>
       <c r="I10" t="n">
-        <v>98.87308247021787</v>
+        <v>25.17452486846179</v>
       </c>
       <c r="J10" t="n">
-        <v>19.61822232451103</v>
+        <v>24.46847691031933</v>
       </c>
       <c r="K10" t="n">
-        <v>31.1617166731553</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>37.82132244032173</v>
+        <v>18.30115343451902</v>
       </c>
       <c r="M10" t="n">
-        <v>25.76985088302911</v>
+        <v>39.62018729961367</v>
       </c>
       <c r="N10" t="n">
-        <v>140.6750826347154</v>
+        <v>8.167912458977128</v>
       </c>
       <c r="O10" t="n">
-        <v>98.70174187164251</v>
+        <v>41.14751187868073</v>
       </c>
       <c r="P10" t="n">
-        <v>156.6807285346524</v>
+        <v>36.77845600807578</v>
       </c>
       <c r="Q10" t="n">
-        <v>124.0540065954458</v>
+        <v>18.80878290556201</v>
       </c>
       <c r="R10" t="n">
-        <v>37.9885035773306</v>
+        <v>93.4232182467036</v>
       </c>
       <c r="S10" t="n">
-        <v>41.13233963140096</v>
+        <v>35.71164467345451</v>
       </c>
       <c r="T10" t="n">
-        <v>9.853988990977076</v>
+        <v>135.6165900086355</v>
       </c>
       <c r="U10" t="n">
-        <v>122.2751711449957</v>
+        <v>84.4260869426316</v>
       </c>
       <c r="V10" t="n">
-        <v>60.44563709944597</v>
+        <v>155.2910012230442</v>
       </c>
       <c r="W10" t="n">
-        <v>83.55709088411028</v>
+        <v>28.87986388360099</v>
       </c>
       <c r="X10" t="n">
-        <v>57.37917420362513</v>
+        <v>93.24088076101621</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.76797060373826</v>
+        <v>29.27103196512416</v>
       </c>
       <c r="Z10" t="n">
-        <v>91.70240009608713</v>
+        <v>51.60292281106331</v>
       </c>
       <c r="AA10" t="n">
-        <v>78.85124051663185</v>
+        <v>44.66623724028518</v>
       </c>
       <c r="AB10" t="n">
-        <v>54.91792252825064</v>
+        <v>96.07319399841526</v>
       </c>
       <c r="AC10" t="n">
-        <v>108.1508621858615</v>
+        <v>104.6827552345761</v>
       </c>
       <c r="AD10" t="n">
-        <v>102.8626040364631</v>
+        <v>75.51908413139121</v>
       </c>
       <c r="AE10" t="n">
-        <v>104.8237503299698</v>
+        <v>132.6914120380862</v>
       </c>
       <c r="AF10" t="n">
-        <v>57.85654002121335</v>
+        <v>99.56088692627232</v>
       </c>
       <c r="AG10" t="n">
-        <v>110.1788812984882</v>
+        <v>43.08155335662768</v>
       </c>
       <c r="AH10" t="n">
-        <v>59.06549442381136</v>
+        <v>70.50883942295262</v>
       </c>
       <c r="AI10" t="n">
-        <v>55.50408298038548</v>
+        <v>26.48460326820557</v>
       </c>
       <c r="AJ10" t="n">
-        <v>103.4806420370548</v>
+        <v>24.75280469151227</v>
       </c>
       <c r="AK10" t="n">
-        <v>86.04142425536864</v>
+        <v>52.67171516712488</v>
       </c>
       <c r="AL10" t="n">
-        <v>24.64484955957088</v>
+        <v>9.900639837983393</v>
       </c>
       <c r="AM10" t="n">
-        <v>31.22192896336551</v>
+        <v>18.64599984909798</v>
       </c>
       <c r="AN10" t="n">
-        <v>23.53225134956499</v>
+        <v>30.07313211062087</v>
       </c>
       <c r="AO10" t="n">
-        <v>35.87003360247331</v>
+        <v>26.99507118663986</v>
       </c>
       <c r="AP10" t="n">
-        <v>18.79845505499211</v>
+        <v>13.41496200692728</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8.805912513135929</v>
+        <v>24.13669428052256</v>
       </c>
       <c r="AR10" t="n">
-        <v>14.53877059091407</v>
+        <v>15.77845109793547</v>
       </c>
       <c r="AS10" t="n">
-        <v>8.199175035598572</v>
+        <v>7.460423628516297</v>
       </c>
       <c r="AT10" t="n">
-        <v>7.972416311744041</v>
+        <v>11.27978593478422</v>
       </c>
       <c r="AU10" t="n">
-        <v>19.0392640033466</v>
+        <v>7.801680187462217</v>
       </c>
       <c r="AV10" t="n">
-        <v>36.45647051571346</v>
+        <v>16.32427518385531</v>
       </c>
       <c r="AW10" t="n">
-        <v>7.117358294689343</v>
+        <v>8.929854358876414</v>
       </c>
       <c r="AX10" t="n">
-        <v>10.08977639812007</v>
+        <v>6.973118659301768</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>20.09686124083046</v>
+        <v>6.156349019841273</v>
       </c>
       <c r="D11" t="n">
-        <v>22.8380533231032</v>
+        <v>22.33317566632255</v>
       </c>
       <c r="E11" t="n">
-        <v>23.10845459321806</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>58.01678144423583</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>58.79341050583853</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>23.58615167994539</v>
+        <v>3.420512148634224</v>
       </c>
       <c r="I11" t="n">
-        <v>2.082295417408039</v>
+        <v>16.17402493699441</v>
       </c>
       <c r="J11" t="n">
-        <v>18.39374486221288</v>
+        <v>210.9451347389545</v>
       </c>
       <c r="K11" t="n">
-        <v>54.03310576828341</v>
+        <v>11.67951717944958</v>
       </c>
       <c r="L11" t="n">
-        <v>80.42401050938483</v>
+        <v>49.3465735201945</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6766585676576966</v>
+        <v>7.052742452091113</v>
       </c>
       <c r="N11" t="n">
-        <v>45.8416127652272</v>
+        <v>60.88439036141299</v>
       </c>
       <c r="O11" t="n">
-        <v>16.23506728094835</v>
+        <v>105.1326293256125</v>
       </c>
       <c r="P11" t="n">
-        <v>21.88754257722853</v>
+        <v>45.12882720930723</v>
       </c>
       <c r="Q11" t="n">
-        <v>139.6207948239755</v>
+        <v>33.43506606650803</v>
       </c>
       <c r="R11" t="n">
-        <v>12.785786738635</v>
+        <v>103.5443832178577</v>
       </c>
       <c r="S11" t="n">
-        <v>50.55780366831655</v>
+        <v>83.9908681417957</v>
       </c>
       <c r="T11" t="n">
-        <v>37.07118435778503</v>
+        <v>71.35474841547443</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>40.91238502822048</v>
       </c>
       <c r="V11" t="n">
-        <v>65.62075438898862</v>
+        <v>33.33521297709942</v>
       </c>
       <c r="W11" t="n">
-        <v>89.09583644202526</v>
+        <v>10.53777238706193</v>
       </c>
       <c r="X11" t="n">
-        <v>40.06183195826156</v>
+        <v>31.63129360745298</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.85612714425708</v>
+        <v>47.1433978448614</v>
       </c>
       <c r="Z11" t="n">
-        <v>59.07258127274035</v>
+        <v>36.82161357904908</v>
       </c>
       <c r="AA11" t="n">
-        <v>83.6983488804221</v>
+        <v>16.85464652378373</v>
       </c>
       <c r="AB11" t="n">
-        <v>142.122857174551</v>
+        <v>41.645103910114</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.071276258061668</v>
+        <v>28.79587918056805</v>
       </c>
       <c r="AD11" t="n">
-        <v>35.05309571607386</v>
+        <v>24.03738624500404</v>
       </c>
       <c r="AE11" t="n">
-        <v>29.77818570563895</v>
+        <v>66.31538736799622</v>
       </c>
       <c r="AF11" t="n">
-        <v>113.2273052233998</v>
+        <v>46.16620199496874</v>
       </c>
       <c r="AG11" t="n">
-        <v>38.67503644899157</v>
+        <v>26.63915004393371</v>
       </c>
       <c r="AH11" t="n">
-        <v>35.33805403964297</v>
+        <v>21.75639105732908</v>
       </c>
       <c r="AI11" t="n">
-        <v>30.46812491074776</v>
+        <v>17.2096914550939</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36.82698528823968</v>
+        <v>3.19469978096554</v>
       </c>
       <c r="AK11" t="n">
-        <v>18.8774366887089</v>
+        <v>53.50990185823063</v>
       </c>
       <c r="AL11" t="n">
-        <v>22.90331620296968</v>
+        <v>26.0120909172562</v>
       </c>
       <c r="AM11" t="n">
-        <v>9.670312812413773</v>
+        <v>41.8713883462462</v>
       </c>
       <c r="AN11" t="n">
-        <v>23.81949888101679</v>
+        <v>9.351137150713569</v>
       </c>
       <c r="AO11" t="n">
-        <v>16.31425725929005</v>
+        <v>38.1493392379567</v>
       </c>
       <c r="AP11" t="n">
-        <v>9.793846997343438</v>
+        <v>19.15443494911717</v>
       </c>
       <c r="AQ11" t="n">
-        <v>17.75676985521771</v>
+        <v>27.11652349428203</v>
       </c>
       <c r="AR11" t="n">
-        <v>29.16413485606486</v>
+        <v>21.73766854528395</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.316660615015062</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>42.73484979462837</v>
+        <v>10.25357469541745</v>
       </c>
       <c r="AU11" t="n">
-        <v>24.70241383593879</v>
+        <v>25.17164420332249</v>
       </c>
       <c r="AV11" t="n">
-        <v>15.42474008286918</v>
+        <v>20.76092304457596</v>
       </c>
       <c r="AW11" t="n">
-        <v>21.3829844647167</v>
+        <v>30.1218594332194</v>
       </c>
       <c r="AX11" t="n">
-        <v>37.27045486951356</v>
+        <v>24.87091411539414</v>
       </c>
     </row>
     <row r="12">
@@ -2213,10 +2213,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.456021879870978</v>
+        <v>2.115105018773516</v>
       </c>
       <c r="D12" t="n">
-        <v>8.148747037422488</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2225,136 +2225,136 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4987303642454961</v>
+        <v>13.23142847630272</v>
       </c>
       <c r="H12" t="n">
-        <v>10.43601203560944</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.00261565233524</v>
+        <v>18.86955628366199</v>
       </c>
       <c r="J12" t="n">
-        <v>60.444904169432</v>
+        <v>35.32623090974546</v>
       </c>
       <c r="K12" t="n">
-        <v>26.89746606429219</v>
+        <v>16.29202161000316</v>
       </c>
       <c r="L12" t="n">
-        <v>7.639524407956433</v>
+        <v>14.44523279455639</v>
       </c>
       <c r="M12" t="n">
-        <v>113.2369165769615</v>
+        <v>60.59516609810408</v>
       </c>
       <c r="N12" t="n">
-        <v>24.40598365046155</v>
+        <v>31.57814771002381</v>
       </c>
       <c r="O12" t="n">
-        <v>27.70977111046173</v>
+        <v>29.69773898158644</v>
       </c>
       <c r="P12" t="n">
-        <v>20.87295101141605</v>
+        <v>79.01673387658904</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.470335269383932</v>
+        <v>10.51630311300231</v>
       </c>
       <c r="R12" t="n">
-        <v>41.64169041592127</v>
+        <v>35.07188224112737</v>
       </c>
       <c r="S12" t="n">
-        <v>28.13584699555052</v>
+        <v>34.03519241133454</v>
       </c>
       <c r="T12" t="n">
-        <v>19.74048046919964</v>
+        <v>13.87793332433447</v>
       </c>
       <c r="U12" t="n">
-        <v>43.22391298645713</v>
+        <v>21.44635531814947</v>
       </c>
       <c r="V12" t="n">
-        <v>22.94653213606363</v>
+        <v>16.93047200819379</v>
       </c>
       <c r="W12" t="n">
-        <v>12.72822490081211</v>
+        <v>30.49199338806034</v>
       </c>
       <c r="X12" t="n">
-        <v>9.290694673388414</v>
+        <v>6.124146072778898</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.26251137023003</v>
+        <v>18.66004014244272</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.2332816907878</v>
+        <v>16.38382208339945</v>
       </c>
       <c r="AA12" t="n">
-        <v>14.35645926551947</v>
+        <v>15.91526541178792</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.62135349874817</v>
+        <v>12.61270163290064</v>
       </c>
       <c r="AC12" t="n">
-        <v>25.34415642096576</v>
+        <v>20.92898628092596</v>
       </c>
       <c r="AD12" t="n">
-        <v>49.5628787929956</v>
+        <v>16.01077851936687</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.867645880728777</v>
+        <v>26.4198460663494</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.87691969411897</v>
+        <v>18.02998968736166</v>
       </c>
       <c r="AG12" t="n">
-        <v>8.842510518200568</v>
+        <v>24.30333063803303</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.471760342715649</v>
+        <v>2.428214035155537</v>
       </c>
       <c r="AI12" t="n">
-        <v>10.86560800008855</v>
+        <v>29.07427746150892</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20.63078801085299</v>
+        <v>9.890368747986123</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.567933694637576</v>
+        <v>8.504326375639064</v>
       </c>
       <c r="AL12" t="n">
-        <v>9.130467305788176</v>
+        <v>2.373340392224689</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.494011617807541</v>
+        <v>6.131010184994587</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.589609089037941</v>
+        <v>1.363172359790985</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.603957696144462</v>
+        <v>4.048602399449344</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.232026578561685</v>
+        <v>3.933224961777073</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8.802655060308226</v>
+        <v>9.208696675428214</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.41450244279495</v>
+        <v>2.966648601328548</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.32327820137094</v>
+        <v>1.573343393957253</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.005363359423656</v>
+        <v>6.273315459510966</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.57372175054996</v>
+        <v>2.534914101124325</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.5178119938641649</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.966603670540863</v>
+        <v>1.034535693583033</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.169642310757844</v>
+        <v>3.592220960850393</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>71.93058068117486</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8.643031076599403</v>
+        <v>5.810275135126819</v>
       </c>
       <c r="E13" t="n">
-        <v>19.00244408951639</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>6.449909062638014</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.1730844277329</v>
+        <v>0.678043399242231</v>
       </c>
       <c r="H13" t="n">
-        <v>7.180231658189827</v>
+        <v>9.247676362765874</v>
       </c>
       <c r="I13" t="n">
-        <v>2.991649685313538</v>
+        <v>95.45575598502583</v>
       </c>
       <c r="J13" t="n">
-        <v>6.875023125648477</v>
+        <v>31.01938548128789</v>
       </c>
       <c r="K13" t="n">
-        <v>20.38104509354622</v>
+        <v>3.403299888098007</v>
       </c>
       <c r="L13" t="n">
-        <v>62.89931765393476</v>
+        <v>35.11738624804278</v>
       </c>
       <c r="M13" t="n">
-        <v>37.18543154486803</v>
+        <v>42.89315627195683</v>
       </c>
       <c r="N13" t="n">
-        <v>12.57130784516468</v>
+        <v>10.59878621309064</v>
       </c>
       <c r="O13" t="n">
-        <v>89.7700079080108</v>
+        <v>39.21602023002774</v>
       </c>
       <c r="P13" t="n">
-        <v>3.813954833184024</v>
+        <v>25.16436506213726</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.06583752750578</v>
+        <v>62.52284168348266</v>
       </c>
       <c r="R13" t="n">
-        <v>6.504381159787712</v>
+        <v>34.68668190108864</v>
       </c>
       <c r="S13" t="n">
-        <v>22.6333054268852</v>
+        <v>35.49587105560953</v>
       </c>
       <c r="T13" t="n">
-        <v>9.712408726783288</v>
+        <v>12.30535544002814</v>
       </c>
       <c r="U13" t="n">
-        <v>32.7621649790111</v>
+        <v>30.88150788774958</v>
       </c>
       <c r="V13" t="n">
-        <v>23.4526695543787</v>
+        <v>40.73606880183318</v>
       </c>
       <c r="W13" t="n">
-        <v>50.42372420118171</v>
+        <v>12.39820162597774</v>
       </c>
       <c r="X13" t="n">
-        <v>18.43510567099525</v>
+        <v>3.330508235508593</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.43071610425113</v>
+        <v>17.67631831286181</v>
       </c>
       <c r="Z13" t="n">
-        <v>36.93580187813517</v>
+        <v>39.21200001324448</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.608245111802653</v>
+        <v>55.75966642905168</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>32.69576939083414</v>
       </c>
       <c r="AC13" t="n">
-        <v>21.26592878059248</v>
+        <v>23.94481655590875</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.162640808398132</v>
+        <v>10.16830247778523</v>
       </c>
       <c r="AE13" t="n">
-        <v>17.27807663205656</v>
+        <v>25.90694166057357</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.158477081310989</v>
+        <v>27.18227393167946</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.42348715253794</v>
+        <v>7.938129084813241</v>
       </c>
       <c r="AH13" t="n">
-        <v>25.70116868539074</v>
+        <v>6.685500810923076</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.687847539873904</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5.923360905563399</v>
+        <v>6.64879425045581</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.296410959283423</v>
+        <v>10.03079148593507</v>
       </c>
       <c r="AL13" t="n">
-        <v>15.29348475431839</v>
+        <v>1.609553504744296</v>
       </c>
       <c r="AM13" t="n">
-        <v>12.60953333902589</v>
+        <v>12.21730018405936</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.97454685612305</v>
+        <v>2.535316793027855</v>
       </c>
       <c r="AO13" t="n">
-        <v>21.25324625609647</v>
+        <v>11.71482360129551</v>
       </c>
       <c r="AP13" t="n">
-        <v>13.22927239776882</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6.064973359004128</v>
+        <v>2.61400478337357</v>
       </c>
       <c r="AR13" t="n">
-        <v>5.047927792478648</v>
+        <v>14.3861232177514</v>
       </c>
       <c r="AS13" t="n">
-        <v>4.90969135032041</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.505031634153956</v>
+        <v>15.25468863532261</v>
       </c>
       <c r="AU13" t="n">
-        <v>18.83280150276634</v>
+        <v>22.53849778278001</v>
       </c>
       <c r="AV13" t="n">
-        <v>4.538320435088107</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.818274888227762</v>
+        <v>3.221514099913942</v>
       </c>
       <c r="AX13" t="n">
-        <v>12.9592118272753</v>
+        <v>14.89294206230377</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>24.4066399892786</v>
+        <v>17.7318413621576</v>
       </c>
       <c r="D14" t="n">
-        <v>15.40902990311749</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>18.82876989918454</v>
+        <v>16.64791775709846</v>
       </c>
       <c r="F14" t="n">
-        <v>26.20515227104089</v>
+        <v>19.51758261807986</v>
       </c>
       <c r="G14" t="n">
-        <v>92.31199192321233</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.97832189314558</v>
+        <v>9.896564199972717</v>
       </c>
       <c r="I14" t="n">
-        <v>52.11862239271188</v>
+        <v>32.17641224755167</v>
       </c>
       <c r="J14" t="n">
-        <v>16.74589521766439</v>
+        <v>9.508346864888424</v>
       </c>
       <c r="K14" t="n">
-        <v>66.73222077183735</v>
+        <v>78.94876044601895</v>
       </c>
       <c r="L14" t="n">
-        <v>69.62706510232107</v>
+        <v>26.13849421278125</v>
       </c>
       <c r="M14" t="n">
-        <v>174.1277114480178</v>
+        <v>28.60291900929849</v>
       </c>
       <c r="N14" t="n">
-        <v>29.19055011516863</v>
+        <v>85.19065678065115</v>
       </c>
       <c r="O14" t="n">
-        <v>5.475265806151334</v>
+        <v>279.0071359234125</v>
       </c>
       <c r="P14" t="n">
-        <v>75.69576763340606</v>
+        <v>9.333848731519339</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.66864384632438</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>94.97770201653249</v>
+        <v>56.48091422216618</v>
       </c>
       <c r="S14" t="n">
-        <v>69.95207875614655</v>
+        <v>53.16439783227148</v>
       </c>
       <c r="T14" t="n">
-        <v>38.95839796890392</v>
+        <v>56.36640058097107</v>
       </c>
       <c r="U14" t="n">
-        <v>124.5127761009663</v>
+        <v>95.45105223981879</v>
       </c>
       <c r="V14" t="n">
-        <v>82.12419450181027</v>
+        <v>18.77870008724154</v>
       </c>
       <c r="W14" t="n">
-        <v>25.59646116067294</v>
+        <v>51.93428512922185</v>
       </c>
       <c r="X14" t="n">
-        <v>62.97871975559745</v>
+        <v>63.8788510898685</v>
       </c>
       <c r="Y14" t="n">
-        <v>56.07574238014023</v>
+        <v>44.04182438770709</v>
       </c>
       <c r="Z14" t="n">
-        <v>66.09867125480235</v>
+        <v>64.03908154746192</v>
       </c>
       <c r="AA14" t="n">
-        <v>58.31981467941151</v>
+        <v>58.31409217137721</v>
       </c>
       <c r="AB14" t="n">
-        <v>70.69991240239432</v>
+        <v>81.08968899944834</v>
       </c>
       <c r="AC14" t="n">
-        <v>158.852148421885</v>
+        <v>125.5273160094256</v>
       </c>
       <c r="AD14" t="n">
-        <v>93.42126678581394</v>
+        <v>117.931847764245</v>
       </c>
       <c r="AE14" t="n">
-        <v>122.9652040027055</v>
+        <v>88.5344734109328</v>
       </c>
       <c r="AF14" t="n">
-        <v>167.1244029975745</v>
+        <v>151.3393450266001</v>
       </c>
       <c r="AG14" t="n">
-        <v>153.0919817544556</v>
+        <v>56.26133316512089</v>
       </c>
       <c r="AH14" t="n">
-        <v>107.721921069186</v>
+        <v>119.0056286974006</v>
       </c>
       <c r="AI14" t="n">
-        <v>99.58324977822247</v>
+        <v>56.66595432093333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>54.18140278958592</v>
+        <v>94.84901128427816</v>
       </c>
       <c r="AK14" t="n">
-        <v>56.51951701892879</v>
+        <v>61.7167542657382</v>
       </c>
       <c r="AL14" t="n">
-        <v>45.44389870446055</v>
+        <v>65.92791802517891</v>
       </c>
       <c r="AM14" t="n">
-        <v>29.33425577407761</v>
+        <v>30.33572940203396</v>
       </c>
       <c r="AN14" t="n">
-        <v>12.55416775411689</v>
+        <v>33.07461240196619</v>
       </c>
       <c r="AO14" t="n">
-        <v>47.01016427887424</v>
+        <v>31.98092570491255</v>
       </c>
       <c r="AP14" t="n">
-        <v>19.66782010080057</v>
+        <v>32.35027251596887</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20.56230811287842</v>
+        <v>21.31440660314784</v>
       </c>
       <c r="AR14" t="n">
-        <v>21.60276552754915</v>
+        <v>24.25746573165545</v>
       </c>
       <c r="AS14" t="n">
-        <v>14.36920694694153</v>
+        <v>46.13489855283093</v>
       </c>
       <c r="AT14" t="n">
-        <v>17.7958229262229</v>
+        <v>12.90287904475313</v>
       </c>
       <c r="AU14" t="n">
-        <v>17.73316354730091</v>
+        <v>31.06749161350424</v>
       </c>
       <c r="AV14" t="n">
-        <v>13.07201793830523</v>
+        <v>29.22212149674637</v>
       </c>
       <c r="AW14" t="n">
-        <v>7.846153842305275</v>
+        <v>17.88836477816031</v>
       </c>
       <c r="AX14" t="n">
-        <v>19.84606753976774</v>
+        <v>41.20156944219638</v>
       </c>
     </row>
     <row r="15">
@@ -2672,145 +2672,145 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.78670181730376</v>
+        <v>3.606439583449145</v>
       </c>
       <c r="E15" t="n">
-        <v>5.33096221787888</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.939722026243116</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>8.505295795137268</v>
+        <v>2.220136206057113</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9579258671012196</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.86679096127852</v>
+        <v>12.12843324677189</v>
       </c>
       <c r="J15" t="n">
-        <v>2.85714555006076</v>
+        <v>2.417069304851505</v>
       </c>
       <c r="K15" t="n">
-        <v>6.243507756414393</v>
+        <v>2.068822215965354</v>
       </c>
       <c r="L15" t="n">
-        <v>5.058247429902172</v>
+        <v>0.5529986674976977</v>
       </c>
       <c r="M15" t="n">
-        <v>2.651211282482772</v>
+        <v>6.311379325638376</v>
       </c>
       <c r="N15" t="n">
-        <v>1.313792393630805</v>
+        <v>1.50875272845872</v>
       </c>
       <c r="O15" t="n">
-        <v>4.275345910354797</v>
+        <v>2.955676509763969</v>
       </c>
       <c r="P15" t="n">
-        <v>6.14481275867522</v>
+        <v>0.5805378980585141</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.778636281560379</v>
+        <v>5.684560085346004</v>
       </c>
       <c r="R15" t="n">
-        <v>21.26502672141083</v>
+        <v>3.519360820435318</v>
       </c>
       <c r="S15" t="n">
-        <v>1.64579802221027</v>
+        <v>8.64348414708514</v>
       </c>
       <c r="T15" t="n">
-        <v>6.045255755431233</v>
+        <v>2.929508492436502</v>
       </c>
       <c r="U15" t="n">
-        <v>4.165031055651655</v>
+        <v>2.089064727512181</v>
       </c>
       <c r="V15" t="n">
-        <v>4.157557439538529</v>
+        <v>2.800321854031251</v>
       </c>
       <c r="W15" t="n">
-        <v>2.978095164244951</v>
+        <v>3.471494478726799</v>
       </c>
       <c r="X15" t="n">
-        <v>3.787523678578543</v>
+        <v>1.986402559606828</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.479859188980658</v>
+        <v>6.131324407315576</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.603359697857623</v>
+        <v>5.874455224201779</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.694411513863431</v>
+        <v>5.161068668698613</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.9743152101268</v>
+        <v>2.914486269444804</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.673831306414315</v>
+        <v>4.131194579220192</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.00593095864902</v>
+        <v>3.260109466398945</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.189835436515859</v>
+        <v>3.478386461204944</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.275983248902971</v>
+        <v>6.923808810797923</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.323302822679988</v>
+        <v>6.737167632116439</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.317601700902255</v>
+        <v>1.488288098953014</v>
       </c>
       <c r="AI15" t="n">
-        <v>9.577281975710749</v>
+        <v>6.479205316791526</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.03014842724727</v>
+        <v>7.861062803497433</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.545853716311702</v>
+        <v>1.708724782892054</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.062232943936272</v>
+        <v>6.407668209957327</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.034289898321124</v>
+        <v>5.172267611953511</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.669177327973427</v>
+        <v>6.594998537443596</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.146401607693988</v>
+        <v>2.178468269314305</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.890044973674064</v>
+        <v>3.071948457338852</v>
       </c>
       <c r="AQ15" t="n">
-        <v>6.498818554452087</v>
+        <v>5.611938048482787</v>
       </c>
       <c r="AR15" t="n">
-        <v>2.436525984883167</v>
+        <v>3.954254158568116</v>
       </c>
       <c r="AS15" t="n">
-        <v>5.130262887228673</v>
+        <v>3.186855347601159</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.48119531655206</v>
+        <v>4.792159570115398</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.068283613317758</v>
+        <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.3158559278015339</v>
+        <v>3.783620379513375</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.840947142096736</v>
+        <v>4.486863109726537</v>
       </c>
       <c r="AX15" t="n">
-        <v>6.241995744294107</v>
+        <v>3.536264735446904</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>8.695182135990411</v>
+        <v>9.760940486483122</v>
       </c>
       <c r="D16" t="n">
-        <v>14.29519150459075</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>6.519583739801933</v>
+        <v>0.2866234899129427</v>
       </c>
       <c r="F16" t="n">
-        <v>14.42593330639448</v>
+        <v>41.26815897067733</v>
       </c>
       <c r="G16" t="n">
-        <v>19.25157708009865</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>5.597585729431406</v>
       </c>
       <c r="I16" t="n">
-        <v>37.18243546410504</v>
+        <v>4.048682242435877</v>
       </c>
       <c r="J16" t="n">
-        <v>28.17196418155006</v>
+        <v>35.58720650261296</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>82.71400850058028</v>
       </c>
       <c r="L16" t="n">
-        <v>52.54447987420374</v>
+        <v>20.16881858275405</v>
       </c>
       <c r="M16" t="n">
-        <v>37.91577714065049</v>
+        <v>25.35413710662251</v>
       </c>
       <c r="N16" t="n">
-        <v>110.210063818089</v>
+        <v>130.161164373626</v>
       </c>
       <c r="O16" t="n">
-        <v>54.20667371030082</v>
+        <v>34.42978569885408</v>
       </c>
       <c r="P16" t="n">
-        <v>171.4870887442108</v>
+        <v>165.6779766558192</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.70533215164836</v>
+        <v>167.1713523997308</v>
       </c>
       <c r="R16" t="n">
-        <v>54.11055632664942</v>
+        <v>65.99522062310902</v>
       </c>
       <c r="S16" t="n">
-        <v>81.98248967605403</v>
+        <v>38.17225050825473</v>
       </c>
       <c r="T16" t="n">
-        <v>57.33066104304731</v>
+        <v>54.80916308092324</v>
       </c>
       <c r="U16" t="n">
-        <v>24.59964665160518</v>
+        <v>43.69715900477527</v>
       </c>
       <c r="V16" t="n">
-        <v>1.145336993859001</v>
+        <v>47.80054694953128</v>
       </c>
       <c r="W16" t="n">
-        <v>30.14511849255799</v>
+        <v>55.74601721300562</v>
       </c>
       <c r="X16" t="n">
-        <v>56.75637779365366</v>
+        <v>60.59408295295855</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.83876486668436</v>
+        <v>40.45374051501733</v>
       </c>
       <c r="Z16" t="n">
-        <v>57.15620472861679</v>
+        <v>62.85480295723717</v>
       </c>
       <c r="AA16" t="n">
-        <v>58.76436193759375</v>
+        <v>34.4640225028574</v>
       </c>
       <c r="AB16" t="n">
-        <v>46.41376334064194</v>
+        <v>38.37300208539973</v>
       </c>
       <c r="AC16" t="n">
-        <v>79.30799758433032</v>
+        <v>94.95510545242216</v>
       </c>
       <c r="AD16" t="n">
-        <v>59.43784906033611</v>
+        <v>124.1335569794861</v>
       </c>
       <c r="AE16" t="n">
-        <v>72.99968986219403</v>
+        <v>71.61971430551984</v>
       </c>
       <c r="AF16" t="n">
-        <v>42.9080798203821</v>
+        <v>35.14251089099859</v>
       </c>
       <c r="AG16" t="n">
-        <v>48.30325473189298</v>
+        <v>48.24614355024288</v>
       </c>
       <c r="AH16" t="n">
-        <v>31.00172782544924</v>
+        <v>87.53567330489517</v>
       </c>
       <c r="AI16" t="n">
-        <v>29.81621465111473</v>
+        <v>54.41207705909058</v>
       </c>
       <c r="AJ16" t="n">
-        <v>200.3736386090101</v>
+        <v>44.99291853378603</v>
       </c>
       <c r="AK16" t="n">
-        <v>38.68956447526384</v>
+        <v>53.35914363005383</v>
       </c>
       <c r="AL16" t="n">
-        <v>33.73951492032532</v>
+        <v>42.07065344021117</v>
       </c>
       <c r="AM16" t="n">
-        <v>9.630763357502211</v>
+        <v>5.744681014284321</v>
       </c>
       <c r="AN16" t="n">
-        <v>33.5786874092649</v>
+        <v>25.16958963155686</v>
       </c>
       <c r="AO16" t="n">
-        <v>22.33597122192141</v>
+        <v>26.04430238780626</v>
       </c>
       <c r="AP16" t="n">
-        <v>10.70316143641503</v>
+        <v>11.64329013894632</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28.93491007446504</v>
+        <v>12.69747586674903</v>
       </c>
       <c r="AR16" t="n">
-        <v>14.79460894643319</v>
+        <v>11.64537747733061</v>
       </c>
       <c r="AS16" t="n">
-        <v>5.660649647476871</v>
+        <v>8.00249727688681</v>
       </c>
       <c r="AT16" t="n">
-        <v>12.13273391020725</v>
+        <v>12.28810581729212</v>
       </c>
       <c r="AU16" t="n">
-        <v>22.76918900978395</v>
+        <v>13.46863664272629</v>
       </c>
       <c r="AV16" t="n">
-        <v>15.09464895855914</v>
+        <v>14.6491304254063</v>
       </c>
       <c r="AW16" t="n">
-        <v>8.930783539500174</v>
+        <v>8.959757477289095</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.703267802948455</v>
+        <v>8.420860244754644</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>27.45352700152515</v>
+        <v>21.97159033194798</v>
       </c>
       <c r="D17" t="n">
-        <v>25.3761144076488</v>
+        <v>35.76311272164965</v>
       </c>
       <c r="E17" t="n">
-        <v>21.89045770470273</v>
+        <v>29.10805681860918</v>
       </c>
       <c r="F17" t="n">
-        <v>11.42010913351303</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.069851481454107</v>
+        <v>14.36388399482935</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>24.58811369064804</v>
       </c>
       <c r="J17" t="n">
-        <v>146.3445717087729</v>
+        <v>11.05295852013927</v>
       </c>
       <c r="K17" t="n">
-        <v>6.093925599205009</v>
+        <v>87.29644472610107</v>
       </c>
       <c r="L17" t="n">
-        <v>47.3266674911989</v>
+        <v>4.117129735546427</v>
       </c>
       <c r="M17" t="n">
-        <v>28.43686859590194</v>
+        <v>300.4395205602783</v>
       </c>
       <c r="N17" t="n">
-        <v>94.99928084792433</v>
+        <v>42.32756584582113</v>
       </c>
       <c r="O17" t="n">
-        <v>36.28756999910595</v>
+        <v>25.54851327974324</v>
       </c>
       <c r="P17" t="n">
-        <v>20.11397015637926</v>
+        <v>11.19186724538216</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.50677034004338</v>
+        <v>10.41215988126621</v>
       </c>
       <c r="R17" t="n">
-        <v>135.3610934549395</v>
+        <v>33.65043920705889</v>
       </c>
       <c r="S17" t="n">
-        <v>36.45259824063016</v>
+        <v>68.25977178694951</v>
       </c>
       <c r="T17" t="n">
-        <v>31.5890173844506</v>
+        <v>46.75916957805795</v>
       </c>
       <c r="U17" t="n">
-        <v>63.20351929911976</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>43.02037893750704</v>
+        <v>83.76591502622021</v>
       </c>
       <c r="W17" t="n">
-        <v>88.4560107137232</v>
+        <v>95.48154065609899</v>
       </c>
       <c r="X17" t="n">
-        <v>20.06562088454197</v>
+        <v>73.23812953983197</v>
       </c>
       <c r="Y17" t="n">
-        <v>157.5343212207875</v>
+        <v>25.23216894915986</v>
       </c>
       <c r="Z17" t="n">
-        <v>49.19209271919615</v>
+        <v>55.50666919370218</v>
       </c>
       <c r="AA17" t="n">
-        <v>38.30149560247563</v>
+        <v>37.93433573667525</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>21.91382749864533</v>
       </c>
       <c r="AC17" t="n">
-        <v>38.81397159193871</v>
+        <v>10.80069894748568</v>
       </c>
       <c r="AD17" t="n">
-        <v>36.12802484118137</v>
+        <v>34.05766966024151</v>
       </c>
       <c r="AE17" t="n">
-        <v>13.98121534327449</v>
+        <v>36.01169904782342</v>
       </c>
       <c r="AF17" t="n">
-        <v>22.53137965016694</v>
+        <v>10.7977811656178</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.551282382394574</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>28.25922573501456</v>
+        <v>17.82683869990711</v>
       </c>
       <c r="AI17" t="n">
-        <v>43.95395189433066</v>
+        <v>46.83343804903937</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3.146967348671282</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>29.7414433446228</v>
+        <v>23.14948349192114</v>
       </c>
       <c r="AL17" t="n">
-        <v>36.65352125963062</v>
+        <v>2.251052233641373</v>
       </c>
       <c r="AM17" t="n">
-        <v>24.80193771192668</v>
+        <v>14.20619679869636</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.46523137111074</v>
+        <v>40.11902959461745</v>
       </c>
       <c r="AO17" t="n">
-        <v>21.62230028632559</v>
+        <v>30.52078836532054</v>
       </c>
       <c r="AP17" t="n">
-        <v>38.27130708519135</v>
+        <v>25.92170693514228</v>
       </c>
       <c r="AQ17" t="n">
-        <v>29.76685580707705</v>
+        <v>22.31023627247347</v>
       </c>
       <c r="AR17" t="n">
-        <v>78.82930601211736</v>
+        <v>37.45271520633252</v>
       </c>
       <c r="AS17" t="n">
-        <v>48.76455517378319</v>
+        <v>4.512696758469039</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.06762996940771</v>
+        <v>24.1342718680942</v>
       </c>
       <c r="AU17" t="n">
-        <v>39.2754028673904</v>
+        <v>18.24631979515486</v>
       </c>
       <c r="AV17" t="n">
-        <v>35.76494890871117</v>
+        <v>16.57209589063105</v>
       </c>
       <c r="AW17" t="n">
-        <v>36.8983964927433</v>
+        <v>23.59649335585379</v>
       </c>
       <c r="AX17" t="n">
-        <v>14.11761764733449</v>
+        <v>25.16998822612523</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1.76018303881551</v>
+        <v>2.9026815855377</v>
       </c>
       <c r="D18" t="n">
-        <v>4.102009842113685</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>4.106402609976236</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4.644298471175002</v>
+        <v>4.651062916548807</v>
       </c>
       <c r="G18" t="n">
-        <v>11.35553672223216</v>
+        <v>3.319526459415822</v>
       </c>
       <c r="H18" t="n">
-        <v>11.21277844189</v>
+        <v>6.142831582173359</v>
       </c>
       <c r="I18" t="n">
-        <v>72.37402381408961</v>
+        <v>27.3931063941612</v>
       </c>
       <c r="J18" t="n">
-        <v>8.628143538737746</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>87.69124131435292</v>
+        <v>2.184073226858027</v>
       </c>
       <c r="L18" t="n">
-        <v>7.671128947228289</v>
+        <v>17.51873077247819</v>
       </c>
       <c r="M18" t="n">
-        <v>40.88453622342281</v>
+        <v>14.46480246633925</v>
       </c>
       <c r="N18" t="n">
-        <v>50.33436966022487</v>
+        <v>28.52085750640294</v>
       </c>
       <c r="O18" t="n">
-        <v>20.61152787354621</v>
+        <v>20.78119272748094</v>
       </c>
       <c r="P18" t="n">
-        <v>3.175387216256346</v>
+        <v>13.11096602502866</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.63613031884906</v>
+        <v>17.3179626863759</v>
       </c>
       <c r="R18" t="n">
-        <v>7.176524685193901</v>
+        <v>82.67784856712315</v>
       </c>
       <c r="S18" t="n">
-        <v>45.5405226067795</v>
+        <v>12.03107775294835</v>
       </c>
       <c r="T18" t="n">
-        <v>19.78969986668205</v>
+        <v>12.39908772319424</v>
       </c>
       <c r="U18" t="n">
-        <v>41.46635690823302</v>
+        <v>7.026519156987255</v>
       </c>
       <c r="V18" t="n">
-        <v>32.18935686791189</v>
+        <v>53.98368291944634</v>
       </c>
       <c r="W18" t="n">
-        <v>22.46802385544885</v>
+        <v>10.53873188690544</v>
       </c>
       <c r="X18" t="n">
-        <v>20.78134546952296</v>
+        <v>15.50255358351149</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.31512505689298</v>
+        <v>25.98280551330032</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.2569050972248</v>
+        <v>11.7951673866769</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.2301656099513</v>
+        <v>13.57820304626297</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.269294557983761</v>
+        <v>6.863359143110026</v>
       </c>
       <c r="AC18" t="n">
-        <v>15.34123529072607</v>
+        <v>41.51268239426913</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.397445473639814</v>
+        <v>25.10582200617961</v>
       </c>
       <c r="AE18" t="n">
-        <v>26.7206221840404</v>
+        <v>18.45259782011627</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.62387604184475</v>
+        <v>16.89132241299362</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.921757844165286</v>
+        <v>5.546806522754242</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.98811292841496</v>
+        <v>22.75513902384061</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.519797677088359</v>
+        <v>20.43949175236685</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.45537615621939</v>
+        <v>5.157415877513405</v>
       </c>
       <c r="AK18" t="n">
-        <v>15.1276564349667</v>
+        <v>5.684341308582431</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.745990494124487</v>
+        <v>3.314843747496623</v>
       </c>
       <c r="AM18" t="n">
-        <v>8.186411783198349</v>
+        <v>5.057694941603089</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.942816600418437</v>
+        <v>2.194635747662761</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.85044997601284</v>
+        <v>2.806414072108409</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.220738155811979</v>
+        <v>4.17915834335289</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.06799183007915</v>
+        <v>4.558543321443996</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.528804914081752</v>
+        <v>4.765981078763014</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.389307430036283</v>
+        <v>3.446179942638781</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.894683440993233</v>
+        <v>0.6867860806011147</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.5201151683774207</v>
+        <v>6.252748453614402</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.892700045666158</v>
+        <v>0.4861370545050003</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.881041428475188</v>
+        <v>2.934924717533586</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.870861155511618</v>
+        <v>1.635983327692847</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>6.646097567093646</v>
+        <v>23.21367271051084</v>
       </c>
       <c r="D19" t="n">
-        <v>27.99160406639784</v>
+        <v>5.093819257659492</v>
       </c>
       <c r="E19" t="n">
-        <v>8.329331254218005</v>
+        <v>6.032931787956604</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4526231507934035</v>
+        <v>33.76252407719426</v>
       </c>
       <c r="G19" t="n">
-        <v>24.36005526965736</v>
+        <v>27.02277597048474</v>
       </c>
       <c r="H19" t="n">
-        <v>16.35753460249814</v>
+        <v>70.4902046676273</v>
       </c>
       <c r="I19" t="n">
-        <v>5.58732613033548</v>
+        <v>18.32674443845637</v>
       </c>
       <c r="J19" t="n">
-        <v>9.415673863565885</v>
+        <v>3.12923155212642</v>
       </c>
       <c r="K19" t="n">
-        <v>33.34115181962451</v>
+        <v>56.73412643127968</v>
       </c>
       <c r="L19" t="n">
-        <v>28.40948255241866</v>
+        <v>68.71467600620775</v>
       </c>
       <c r="M19" t="n">
-        <v>45.10812798804645</v>
+        <v>2.6471838639161</v>
       </c>
       <c r="N19" t="n">
-        <v>11.09145393131818</v>
+        <v>107.314044809224</v>
       </c>
       <c r="O19" t="n">
-        <v>29.51279333329688</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39.67406345582694</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.14334721799018</v>
+        <v>17.46945034616992</v>
       </c>
       <c r="R19" t="n">
-        <v>53.86243546658714</v>
+        <v>33.37475285270485</v>
       </c>
       <c r="S19" t="n">
-        <v>13.34253756764268</v>
+        <v>33.13846055913434</v>
       </c>
       <c r="T19" t="n">
-        <v>85.41351718832348</v>
+        <v>18.75060782323809</v>
       </c>
       <c r="U19" t="n">
-        <v>2.347075981484206</v>
+        <v>32.44370020605623</v>
       </c>
       <c r="V19" t="n">
-        <v>37.2378339788938</v>
+        <v>21.19797283480178</v>
       </c>
       <c r="W19" t="n">
-        <v>12.73878072328098</v>
+        <v>37.80632540105021</v>
       </c>
       <c r="X19" t="n">
-        <v>14.3369809387761</v>
+        <v>24.55632778041146</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.42567771871681</v>
+        <v>1.347992348720425</v>
       </c>
       <c r="Z19" t="n">
-        <v>38.6842608951487</v>
+        <v>10.67157051119513</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.83092526746211</v>
+        <v>5.772621797025251</v>
       </c>
       <c r="AB19" t="n">
-        <v>26.80374559700024</v>
+        <v>30.2411127876508</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.127006508198527</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.320809430753272</v>
+        <v>15.98595282038947</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.457816081900724</v>
+        <v>3.402295981404402</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.109347848396436</v>
+        <v>16.39482254867252</v>
       </c>
       <c r="AG19" t="n">
-        <v>5.594016854809269</v>
+        <v>28.48946653835963</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.631049463640728</v>
+        <v>24.52757957318754</v>
       </c>
       <c r="AI19" t="n">
-        <v>37.73191176944368</v>
+        <v>0.06697944570581837</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14.34376917114758</v>
+        <v>11.86588956485524</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.5667752305877025</v>
+        <v>2.106299577542696</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>17.68020066939517</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.154753911409795</v>
+        <v>71.87216726682398</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.813683383686755</v>
+        <v>5.215040859158897</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.019344200776807</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>12.0021099185617</v>
+        <v>0.5469809741270995</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.401108307625635</v>
+        <v>1.881251176261194</v>
       </c>
       <c r="AR19" t="n">
-        <v>5.068439663582703</v>
+        <v>8.70901254013167</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.050305211084622</v>
+        <v>8.077482338570199</v>
       </c>
       <c r="AT19" t="n">
-        <v>9.019856106085044</v>
+        <v>0.1084599139026844</v>
       </c>
       <c r="AU19" t="n">
-        <v>5.384266091839506</v>
+        <v>2.778139567122348</v>
       </c>
       <c r="AV19" t="n">
-        <v>11.59645699270918</v>
+        <v>7.097179747712397</v>
       </c>
       <c r="AW19" t="n">
-        <v>8.050835286505267</v>
+        <v>5.709860323297631</v>
       </c>
       <c r="AX19" t="n">
-        <v>12.19648235741496</v>
+        <v>25.27977161290972</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>23.58157012657843</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>8.836956745722659</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>11.21860268412343</v>
+        <v>3.64981808259315</v>
       </c>
       <c r="F20" t="n">
-        <v>92.99596033938288</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>23.39644926045738</v>
+        <v>60.93005592492086</v>
       </c>
       <c r="H20" t="n">
-        <v>10.31101639071678</v>
+        <v>51.80822665789898</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>13.54744308903975</v>
       </c>
       <c r="J20" t="n">
-        <v>130.0090851540413</v>
+        <v>7.278922125032118</v>
       </c>
       <c r="K20" t="n">
-        <v>80.58451967747064</v>
+        <v>38.68145596078274</v>
       </c>
       <c r="L20" t="n">
-        <v>66.67689733211574</v>
+        <v>20.72120806564072</v>
       </c>
       <c r="M20" t="n">
-        <v>316.7731090019602</v>
+        <v>30.53422726646075</v>
       </c>
       <c r="N20" t="n">
-        <v>96.91675458734427</v>
+        <v>70.16724854753689</v>
       </c>
       <c r="O20" t="n">
-        <v>51.64009462641237</v>
+        <v>47.16634612400743</v>
       </c>
       <c r="P20" t="n">
-        <v>47.87212126255669</v>
+        <v>55.02349331696866</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.25629144515677</v>
+        <v>47.89722855259172</v>
       </c>
       <c r="R20" t="n">
-        <v>36.86175047470071</v>
+        <v>53.63261457197944</v>
       </c>
       <c r="S20" t="n">
-        <v>33.51230123488536</v>
+        <v>71.54803400337741</v>
       </c>
       <c r="T20" t="n">
-        <v>13.2200312399927</v>
+        <v>60.70731245793525</v>
       </c>
       <c r="U20" t="n">
-        <v>66.12654986416331</v>
+        <v>45.36508972305141</v>
       </c>
       <c r="V20" t="n">
-        <v>89.68337547849444</v>
+        <v>81.62879245797919</v>
       </c>
       <c r="W20" t="n">
-        <v>56.19824289916581</v>
+        <v>55.18610683791495</v>
       </c>
       <c r="X20" t="n">
-        <v>39.21225483418468</v>
+        <v>184.0714409829686</v>
       </c>
       <c r="Y20" t="n">
-        <v>44.10163813331552</v>
+        <v>51.40402056383082</v>
       </c>
       <c r="Z20" t="n">
-        <v>68.7842535076459</v>
+        <v>127.4284600115177</v>
       </c>
       <c r="AA20" t="n">
-        <v>79.93329976159012</v>
+        <v>72.12814815221607</v>
       </c>
       <c r="AB20" t="n">
-        <v>112.1078201042274</v>
+        <v>87.10950211926087</v>
       </c>
       <c r="AC20" t="n">
-        <v>153.6944075347299</v>
+        <v>64.43446377633194</v>
       </c>
       <c r="AD20" t="n">
-        <v>71.42937569810898</v>
+        <v>175.0994798354867</v>
       </c>
       <c r="AE20" t="n">
-        <v>25.90182296474142</v>
+        <v>97.22480128789817</v>
       </c>
       <c r="AF20" t="n">
-        <v>177.7523200980486</v>
+        <v>50.06410550746894</v>
       </c>
       <c r="AG20" t="n">
-        <v>195.2774321094356</v>
+        <v>100.1683161312451</v>
       </c>
       <c r="AH20" t="n">
-        <v>189.274171139886</v>
+        <v>45.02835151613527</v>
       </c>
       <c r="AI20" t="n">
-        <v>56.96398265383758</v>
+        <v>52.18523638666893</v>
       </c>
       <c r="AJ20" t="n">
-        <v>75.67674624478197</v>
+        <v>50.46377632334882</v>
       </c>
       <c r="AK20" t="n">
-        <v>54.22947826702769</v>
+        <v>15.72901109854735</v>
       </c>
       <c r="AL20" t="n">
-        <v>97.08620892810559</v>
+        <v>39.74638897744642</v>
       </c>
       <c r="AM20" t="n">
-        <v>27.99841121178799</v>
+        <v>66.95907951140479</v>
       </c>
       <c r="AN20" t="n">
-        <v>13.29241237526043</v>
+        <v>53.74000485993926</v>
       </c>
       <c r="AO20" t="n">
-        <v>54.99222271865174</v>
+        <v>21.37361504467975</v>
       </c>
       <c r="AP20" t="n">
-        <v>22.92112986215691</v>
+        <v>18.48016873821203</v>
       </c>
       <c r="AQ20" t="n">
-        <v>22.79454969689199</v>
+        <v>26.95630517977746</v>
       </c>
       <c r="AR20" t="n">
-        <v>28.44482037204256</v>
+        <v>29.40312456510462</v>
       </c>
       <c r="AS20" t="n">
-        <v>28.43126682391044</v>
+        <v>20.38406927793683</v>
       </c>
       <c r="AT20" t="n">
-        <v>17.51357531104403</v>
+        <v>15.30363568283191</v>
       </c>
       <c r="AU20" t="n">
-        <v>32.19438725928279</v>
+        <v>26.81946733914871</v>
       </c>
       <c r="AV20" t="n">
-        <v>16.25507873868459</v>
+        <v>24.56942315639562</v>
       </c>
       <c r="AW20" t="n">
-        <v>18.50530243390434</v>
+        <v>31.14869618245601</v>
       </c>
       <c r="AX20" t="n">
-        <v>15.51178968225118</v>
+        <v>17.29782488970036</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>4.038505482129325</v>
+        <v>3.725903140060772</v>
       </c>
       <c r="D21" t="n">
-        <v>1.524253403215067</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>3.424737742756943</v>
+        <v>2.480909435784658</v>
       </c>
       <c r="F21" t="n">
-        <v>3.106430646783539</v>
+        <v>2.251248722336749</v>
       </c>
       <c r="G21" t="n">
-        <v>1.866679224164812</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>3.387701557710697</v>
+        <v>1.577903211758259</v>
       </c>
       <c r="I21" t="n">
-        <v>8.786720626671874</v>
+        <v>3.183200661256738</v>
       </c>
       <c r="J21" t="n">
-        <v>1.969760368288459</v>
+        <v>15.91556149706823</v>
       </c>
       <c r="K21" t="n">
-        <v>4.66757328081048</v>
+        <v>0.4975508241597394</v>
       </c>
       <c r="L21" t="n">
-        <v>3.76910838090981</v>
+        <v>5.808272425391755</v>
       </c>
       <c r="M21" t="n">
-        <v>4.160376410782505</v>
+        <v>3.080991929644814</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>5.488498566576395</v>
       </c>
       <c r="O21" t="n">
-        <v>2.509739521747872</v>
+        <v>6.487715666515808</v>
       </c>
       <c r="P21" t="n">
-        <v>1.865049970254746</v>
+        <v>10.19212482428902</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.855069114008941</v>
+        <v>8.230058442360017</v>
       </c>
       <c r="R21" t="n">
-        <v>7.126668376495032</v>
+        <v>2.044033344339346</v>
       </c>
       <c r="S21" t="n">
-        <v>5.044345118604005</v>
+        <v>2.840729822780606</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7389546377577261</v>
+        <v>7.491617619756926</v>
       </c>
       <c r="U21" t="n">
-        <v>9.69933756595624</v>
+        <v>4.718659890125782</v>
       </c>
       <c r="V21" t="n">
-        <v>4.420752858898087</v>
+        <v>2.870007842568604</v>
       </c>
       <c r="W21" t="n">
-        <v>3.959661780699256</v>
+        <v>11.30870316141731</v>
       </c>
       <c r="X21" t="n">
-        <v>3.087769416111878</v>
+        <v>4.60352244659527</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.284015206005326</v>
+        <v>5.345851850865474</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.560574773168776</v>
+        <v>3.285040829967875</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.75644500409146</v>
+        <v>2.008657066145178</v>
       </c>
       <c r="AB21" t="n">
-        <v>3.648304954558578</v>
+        <v>2.430618867413875</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.880468098017263</v>
+        <v>2.239553880299176</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.007389910840528</v>
+        <v>6.235906461018998</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.62481494562471</v>
+        <v>6.264264296990244</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.945505118533697</v>
+        <v>6.407702807790206</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.89392249048285</v>
+        <v>3.666338169540202</v>
       </c>
       <c r="AH21" t="n">
-        <v>5.438011017792516</v>
+        <v>9.870678826930058</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.378605223308291</v>
+        <v>3.166462618855531</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.059583545897375</v>
+        <v>6.914451457698647</v>
       </c>
       <c r="AK21" t="n">
-        <v>5.186194908842833</v>
+        <v>3.740723073181329</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.349516156587502</v>
+        <v>2.147391351300614</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.974470372368681</v>
+        <v>4.72856553115526</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.562018910206989</v>
+        <v>3.52510395920468</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.181295132926814</v>
+        <v>4.327238317138668</v>
       </c>
       <c r="AP21" t="n">
-        <v>5.237523146029484</v>
+        <v>3.541872639905286</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.591967672383395</v>
+        <v>1.883987355765184</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.886683109189905</v>
+        <v>3.772200447181934</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.301788304918648</v>
+        <v>2.597797646562438</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.884465059418004</v>
+        <v>5.714400536721116</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.848346327162642</v>
+        <v>2.910870341670936</v>
       </c>
       <c r="AV21" t="n">
-        <v>4.869792970888332</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>7.23737353359363</v>
+        <v>4.281429224358821</v>
       </c>
       <c r="AX21" t="n">
-        <v>3.336172308074298</v>
+        <v>2.575320473591963</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>8.129362593364908</v>
+        <v>7.861365785530039</v>
       </c>
       <c r="D22" t="n">
-        <v>65.7292442979446</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.324416121589419</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>32.49333513706724</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>14.68777311861021</v>
+        <v>1.825569090026064</v>
       </c>
       <c r="H22" t="n">
-        <v>69.75686738461684</v>
+        <v>11.04021272376257</v>
       </c>
       <c r="I22" t="n">
-        <v>8.346303306367785</v>
+        <v>127.2030823535175</v>
       </c>
       <c r="J22" t="n">
-        <v>52.96756583719041</v>
+        <v>141.6710450109589</v>
       </c>
       <c r="K22" t="n">
-        <v>50.99575837191382</v>
+        <v>150.312980056431</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>12.64500912078251</v>
       </c>
       <c r="M22" t="n">
-        <v>130.3630556336526</v>
+        <v>10.42612449921703</v>
       </c>
       <c r="N22" t="n">
-        <v>112.4064533733817</v>
+        <v>37.76428970572991</v>
       </c>
       <c r="O22" t="n">
-        <v>15.44068383782747</v>
+        <v>42.74376040738095</v>
       </c>
       <c r="P22" t="n">
-        <v>97.80829990346636</v>
+        <v>68.91221304311142</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.09499788072759</v>
+        <v>25.12956256406387</v>
       </c>
       <c r="R22" t="n">
-        <v>56.82934179693949</v>
+        <v>5.86071432827004</v>
       </c>
       <c r="S22" t="n">
-        <v>29.67291116228568</v>
+        <v>34.92624798849786</v>
       </c>
       <c r="T22" t="n">
-        <v>52.1140305224853</v>
+        <v>22.66669843761799</v>
       </c>
       <c r="U22" t="n">
-        <v>80.67916976932186</v>
+        <v>77.60995529959327</v>
       </c>
       <c r="V22" t="n">
-        <v>12.21538664791491</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>66.12210743868094</v>
+        <v>94.28335225268823</v>
       </c>
       <c r="X22" t="n">
-        <v>88.75361721192428</v>
+        <v>132.8835596705947</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.79634105923735</v>
+        <v>44.62805039689083</v>
       </c>
       <c r="Z22" t="n">
-        <v>96.64436614024477</v>
+        <v>59.36421910172892</v>
       </c>
       <c r="AA22" t="n">
-        <v>62.53248778264086</v>
+        <v>39.1332407122194</v>
       </c>
       <c r="AB22" t="n">
-        <v>54.05019853735534</v>
+        <v>54.89555882722266</v>
       </c>
       <c r="AC22" t="n">
-        <v>91.26371059149622</v>
+        <v>55.75113411271929</v>
       </c>
       <c r="AD22" t="n">
-        <v>93.6694857417742</v>
+        <v>70.88713593736753</v>
       </c>
       <c r="AE22" t="n">
-        <v>75.77603510781154</v>
+        <v>51.74177948146951</v>
       </c>
       <c r="AF22" t="n">
-        <v>53.66907551891069</v>
+        <v>102.7618627474053</v>
       </c>
       <c r="AG22" t="n">
-        <v>47.76347715146923</v>
+        <v>29.02179366708135</v>
       </c>
       <c r="AH22" t="n">
-        <v>52.26260314950572</v>
+        <v>48.23421934642832</v>
       </c>
       <c r="AI22" t="n">
-        <v>14.89700442758747</v>
+        <v>36.44420674909623</v>
       </c>
       <c r="AJ22" t="n">
-        <v>38.20786001832811</v>
+        <v>39.95901623204889</v>
       </c>
       <c r="AK22" t="n">
-        <v>40.92585179034957</v>
+        <v>6.285293122889797</v>
       </c>
       <c r="AL22" t="n">
-        <v>38.82481491598217</v>
+        <v>55.34167289298487</v>
       </c>
       <c r="AM22" t="n">
-        <v>18.20685463677988</v>
+        <v>31.672606730782</v>
       </c>
       <c r="AN22" t="n">
-        <v>11.7930015134636</v>
+        <v>18.76670371176847</v>
       </c>
       <c r="AO22" t="n">
-        <v>36.49972043892985</v>
+        <v>22.31998176897358</v>
       </c>
       <c r="AP22" t="n">
-        <v>14.31745477327402</v>
+        <v>18.83229766103994</v>
       </c>
       <c r="AQ22" t="n">
-        <v>11.08697024105534</v>
+        <v>9.311215491199642</v>
       </c>
       <c r="AR22" t="n">
-        <v>29.30556224063752</v>
+        <v>17.83229637717567</v>
       </c>
       <c r="AS22" t="n">
-        <v>7.799044574549178</v>
+        <v>11.38741899121978</v>
       </c>
       <c r="AT22" t="n">
-        <v>13.92111116013076</v>
+        <v>4.633260469259323</v>
       </c>
       <c r="AU22" t="n">
-        <v>17.09931183542296</v>
+        <v>7.5697800355891</v>
       </c>
       <c r="AV22" t="n">
-        <v>17.48136001560828</v>
+        <v>15.66486464467566</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.509354535317572</v>
+        <v>11.81712475817824</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.752496689408774</v>
+        <v>8.687428257430955</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>4.55614782564041</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.052427283848035</v>
+        <v>15.37290680134747</v>
       </c>
       <c r="E23" t="n">
-        <v>11.29649594307581</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>13.97919775762534</v>
+        <v>35.65486124781977</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>14.22539416247143</v>
+        <v>24.34677066861856</v>
       </c>
       <c r="I23" t="n">
-        <v>25.26388698657288</v>
+        <v>118.2176535451109</v>
       </c>
       <c r="J23" t="n">
-        <v>58.57336216711655</v>
+        <v>36.06213951141586</v>
       </c>
       <c r="K23" t="n">
-        <v>33.17508507008951</v>
+        <v>26.47323493844539</v>
       </c>
       <c r="L23" t="n">
-        <v>13.04297764193924</v>
+        <v>106.0221164042525</v>
       </c>
       <c r="M23" t="n">
-        <v>32.74307770077574</v>
+        <v>45.61421058472398</v>
       </c>
       <c r="N23" t="n">
-        <v>62.56107908307644</v>
+        <v>52.39777664126208</v>
       </c>
       <c r="O23" t="n">
-        <v>27.05578318377479</v>
+        <v>76.67649595768613</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>41.88454311062645</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.86053154599634</v>
+        <v>75.73822640160327</v>
       </c>
       <c r="R23" t="n">
-        <v>1.899489997736907</v>
+        <v>109.2566312988764</v>
       </c>
       <c r="S23" t="n">
-        <v>170.661573806053</v>
+        <v>38.97077365511839</v>
       </c>
       <c r="T23" t="n">
-        <v>24.32870807018822</v>
+        <v>87.54538491053943</v>
       </c>
       <c r="U23" t="n">
-        <v>49.8682642085615</v>
+        <v>84.80939310490761</v>
       </c>
       <c r="V23" t="n">
-        <v>49.49278881133318</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>37.14490701594755</v>
+        <v>51.91075601302107</v>
       </c>
       <c r="X23" t="n">
-        <v>40.74773548179753</v>
+        <v>112.3221302723562</v>
       </c>
       <c r="Y23" t="n">
-        <v>49.99746900628862</v>
+        <v>60.60438012974072</v>
       </c>
       <c r="Z23" t="n">
-        <v>110.9245034456083</v>
+        <v>38.46770418864475</v>
       </c>
       <c r="AA23" t="n">
-        <v>45.35133778883609</v>
+        <v>29.00720268864344</v>
       </c>
       <c r="AB23" t="n">
-        <v>34.61918448368473</v>
+        <v>33.29928085933609</v>
       </c>
       <c r="AC23" t="n">
-        <v>34.67957912695014</v>
+        <v>41.19840416524477</v>
       </c>
       <c r="AD23" t="n">
-        <v>59.90676349227741</v>
+        <v>30.88064797775968</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>37.06384478229867</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.8685129176080337</v>
+        <v>45.97118882614063</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.05760169197755</v>
+        <v>63.23623399706945</v>
       </c>
       <c r="AH23" t="n">
-        <v>29.61012258785502</v>
+        <v>20.306921319969</v>
       </c>
       <c r="AI23" t="n">
-        <v>29.24558421176047</v>
+        <v>13.24889237317872</v>
       </c>
       <c r="AJ23" t="n">
-        <v>40.63899511090418</v>
+        <v>13.23233615940423</v>
       </c>
       <c r="AK23" t="n">
-        <v>8.590916732679936</v>
+        <v>49.19776993278357</v>
       </c>
       <c r="AL23" t="n">
-        <v>28.80961062505023</v>
+        <v>23.2928969638509</v>
       </c>
       <c r="AM23" t="n">
-        <v>26.52905856799822</v>
+        <v>45.53384572850825</v>
       </c>
       <c r="AN23" t="n">
-        <v>24.59719363867441</v>
+        <v>32.52781024894858</v>
       </c>
       <c r="AO23" t="n">
-        <v>23.48884508147848</v>
+        <v>51.06501738253026</v>
       </c>
       <c r="AP23" t="n">
-        <v>26.7750629739717</v>
+        <v>26.85692140001804</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30.33539634604293</v>
+        <v>19.72411613531435</v>
       </c>
       <c r="AR23" t="n">
-        <v>28.81924709710825</v>
+        <v>30.00143367136089</v>
       </c>
       <c r="AS23" t="n">
-        <v>21.97545151328372</v>
+        <v>39.70396372072869</v>
       </c>
       <c r="AT23" t="n">
-        <v>41.1171092185737</v>
+        <v>9.366076213186869</v>
       </c>
       <c r="AU23" t="n">
-        <v>31.29618563429286</v>
+        <v>9.497868482195823</v>
       </c>
       <c r="AV23" t="n">
-        <v>36.91121127675532</v>
+        <v>28.69125967735902</v>
       </c>
       <c r="AW23" t="n">
-        <v>11.71014884636371</v>
+        <v>9.914004019204445</v>
       </c>
       <c r="AX23" t="n">
-        <v>24.3431524924907</v>
+        <v>11.70169922711378</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>9.078857588630076</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>10.50226959329418</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>20.87835052733387</v>
+        <v>6.591299123038215</v>
       </c>
       <c r="F24" t="n">
-        <v>8.94502678899681</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>17.72407446942438</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>26.03382245370164</v>
+        <v>26.59006812412808</v>
       </c>
       <c r="I24" t="n">
-        <v>10.85270617538218</v>
+        <v>14.55096683611345</v>
       </c>
       <c r="J24" t="n">
-        <v>32.34330638286218</v>
+        <v>9.317448869423202</v>
       </c>
       <c r="K24" t="n">
-        <v>22.76647302775862</v>
+        <v>35.30566648031974</v>
       </c>
       <c r="L24" t="n">
-        <v>35.31217703583383</v>
+        <v>38.56940977466098</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3634365184308939</v>
+        <v>53.03433176389027</v>
       </c>
       <c r="N24" t="n">
-        <v>27.10359064309166</v>
+        <v>24.16293992548208</v>
       </c>
       <c r="O24" t="n">
-        <v>24.87835894165585</v>
+        <v>20.79645618215217</v>
       </c>
       <c r="P24" t="n">
-        <v>31.53474897610369</v>
+        <v>58.53835316663082</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.21932418876139</v>
+        <v>11.81055325289132</v>
       </c>
       <c r="R24" t="n">
-        <v>8.221566880522843</v>
+        <v>9.066532876648957</v>
       </c>
       <c r="S24" t="n">
-        <v>32.91339567572127</v>
+        <v>36.30325809733618</v>
       </c>
       <c r="T24" t="n">
-        <v>9.389962012030976</v>
+        <v>75.66660021366152</v>
       </c>
       <c r="U24" t="n">
-        <v>21.00606739565907</v>
+        <v>18.62711621400008</v>
       </c>
       <c r="V24" t="n">
-        <v>27.59591292339657</v>
+        <v>10.91552993654509</v>
       </c>
       <c r="W24" t="n">
-        <v>29.76464705930553</v>
+        <v>25.71221399035641</v>
       </c>
       <c r="X24" t="n">
-        <v>15.61115326613645</v>
+        <v>9.472507955108053</v>
       </c>
       <c r="Y24" t="n">
-        <v>31.96722774610589</v>
+        <v>20.09032476470376</v>
       </c>
       <c r="Z24" t="n">
-        <v>12.73423535589824</v>
+        <v>31.00116646022008</v>
       </c>
       <c r="AA24" t="n">
-        <v>36.77385746923263</v>
+        <v>12.99023892581343</v>
       </c>
       <c r="AB24" t="n">
-        <v>23.50156169896764</v>
+        <v>14.67775371672313</v>
       </c>
       <c r="AC24" t="n">
-        <v>16.52320962293955</v>
+        <v>15.84663096945726</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.04200986230012</v>
+        <v>18.66564538415105</v>
       </c>
       <c r="AE24" t="n">
-        <v>12.59732053748162</v>
+        <v>8.148859622523393</v>
       </c>
       <c r="AF24" t="n">
-        <v>17.97456943476316</v>
+        <v>14.79596342516813</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.91447265148596</v>
+        <v>2.951405922923545</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.25504660861593</v>
+        <v>4.182746752567382</v>
       </c>
       <c r="AI24" t="n">
-        <v>6.467144228261201</v>
+        <v>14.69149872313799</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11.57277327535928</v>
+        <v>4.176640178463832</v>
       </c>
       <c r="AK24" t="n">
-        <v>4.089255340087828</v>
+        <v>17.88668795148558</v>
       </c>
       <c r="AL24" t="n">
-        <v>3.672218961870783</v>
+        <v>3.025296096804603</v>
       </c>
       <c r="AM24" t="n">
-        <v>5.342738303203838</v>
+        <v>6.330354796403149</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.583897793131452</v>
+        <v>5.315175190841605</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.107601197390012</v>
+        <v>1.008708680990353</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.19263067416003</v>
+        <v>0.5929370054279841</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.809175516268104</v>
+        <v>4.371279519576084</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.101598847207002</v>
+        <v>2.027244658673487</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.08745850916342945</v>
+        <v>2.297849518140063</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.421473328521309</v>
+        <v>2.363729263888099</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.6936332710445611</v>
+        <v>2.040150952790883</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.332859756091334</v>
+        <v>4.601959349361656</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.4991119593475279</v>
+        <v>4.791580960512421</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.58160607245731</v>
+        <v>2.723243717293462</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>20.00829653380039</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>9.421919597192275</v>
+        <v>14.7027634109479</v>
       </c>
       <c r="F25" t="n">
-        <v>3.795189569138583</v>
+        <v>15.00723316842438</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>9.577034375233779</v>
+        <v>3.096623626426037</v>
       </c>
       <c r="I25" t="n">
-        <v>40.14478077320521</v>
+        <v>39.56478133498938</v>
       </c>
       <c r="J25" t="n">
-        <v>5.080871899480419</v>
+        <v>1.945842068641096</v>
       </c>
       <c r="K25" t="n">
-        <v>6.191046572028462</v>
+        <v>31.5045163198892</v>
       </c>
       <c r="L25" t="n">
-        <v>47.41081329857339</v>
+        <v>0.4271657679780492</v>
       </c>
       <c r="M25" t="n">
-        <v>23.95243562503926</v>
+        <v>7.935215786397522</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>42.26804947654625</v>
       </c>
       <c r="O25" t="n">
-        <v>31.37381934909297</v>
+        <v>43.37669370655253</v>
       </c>
       <c r="P25" t="n">
-        <v>22.43892096886301</v>
+        <v>78.67447595676404</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.37981271622772</v>
+        <v>22.67399786729022</v>
       </c>
       <c r="R25" t="n">
-        <v>49.90932767321458</v>
+        <v>24.49685564808578</v>
       </c>
       <c r="S25" t="n">
-        <v>79.23143123414928</v>
+        <v>8.555455239282798</v>
       </c>
       <c r="T25" t="n">
-        <v>15.52703078801498</v>
+        <v>35.9527443257597</v>
       </c>
       <c r="U25" t="n">
-        <v>30.14475782002501</v>
+        <v>32.45659840176811</v>
       </c>
       <c r="V25" t="n">
-        <v>43.19919390084564</v>
+        <v>32.2884406865053</v>
       </c>
       <c r="W25" t="n">
-        <v>87.24522024408201</v>
+        <v>5.560903678074508</v>
       </c>
       <c r="X25" t="n">
-        <v>28.68320300228827</v>
+        <v>34.29725607281863</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.867404686517491</v>
+        <v>34.1029019325419</v>
       </c>
       <c r="Z25" t="n">
-        <v>44.76112105770252</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>22.24052680738239</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>14.46717942872869</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>8.685796435474279</v>
       </c>
       <c r="AD25" t="n">
-        <v>75.77211030022336</v>
+        <v>8.055928494246716</v>
       </c>
       <c r="AE25" t="n">
-        <v>9.090073103797994</v>
+        <v>6.280493377521423</v>
       </c>
       <c r="AF25" t="n">
-        <v>4.856239595901471</v>
+        <v>3.159531455813966</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.096217140468528</v>
+        <v>29.22569148088582</v>
       </c>
       <c r="AH25" t="n">
-        <v>11.82683092142442</v>
+        <v>10.80969089244487</v>
       </c>
       <c r="AI25" t="n">
-        <v>6.443537995260333</v>
+        <v>21.58468315637561</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17.16927060855731</v>
+        <v>4.710497157898556</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.8767541623505081</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>10.27497308420619</v>
+        <v>15.58582156915981</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.109016346789889</v>
+        <v>7.050264253142355</v>
       </c>
       <c r="AN25" t="n">
-        <v>21.71332634888906</v>
+        <v>3.632109620855176</v>
       </c>
       <c r="AO25" t="n">
-        <v>11.19583910022751</v>
+        <v>19.86272229952929</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.247251441747112</v>
+        <v>5.163600715514185</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.4243661586387308</v>
+        <v>17.77203696589386</v>
       </c>
       <c r="AR25" t="n">
-        <v>3.131108760221127</v>
+        <v>4.957653570813436</v>
       </c>
       <c r="AS25" t="n">
-        <v>4.865481061828121</v>
+        <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.086123454250403</v>
+        <v>0.3031141567365676</v>
       </c>
       <c r="AU25" t="n">
-        <v>14.1720547024528</v>
+        <v>1.132224460461203</v>
       </c>
       <c r="AV25" t="n">
-        <v>3.728444783989632</v>
+        <v>0.06906457078266337</v>
       </c>
       <c r="AW25" t="n">
-        <v>8.800376560820967</v>
+        <v>0.49430915835817</v>
       </c>
       <c r="AX25" t="n">
-        <v>14.39309055182458</v>
+        <v>57.51586825196232</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>9.295666052458532</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>18.79824408444231</v>
+        <v>25.53125523298157</v>
       </c>
       <c r="E26" t="n">
-        <v>27.64372121653141</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>19.91699824224926</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>8.513713998247107</v>
+        <v>24.23460243376422</v>
       </c>
       <c r="H26" t="n">
-        <v>36.46533987913173</v>
+        <v>29.31582963424171</v>
       </c>
       <c r="I26" t="n">
-        <v>40.35608287494451</v>
+        <v>46.51057082675531</v>
       </c>
       <c r="J26" t="n">
-        <v>2.991400683920066</v>
+        <v>205.1456821349796</v>
       </c>
       <c r="K26" t="n">
-        <v>202.5673781561866</v>
+        <v>29.05889489451412</v>
       </c>
       <c r="L26" t="n">
-        <v>198.9631615041582</v>
+        <v>31.28360919172037</v>
       </c>
       <c r="M26" t="n">
-        <v>106.3642350537205</v>
+        <v>204.0234630186856</v>
       </c>
       <c r="N26" t="n">
-        <v>25.98880655810405</v>
+        <v>47.22344706710697</v>
       </c>
       <c r="O26" t="n">
-        <v>43.85962881962775</v>
+        <v>45.55374321707027</v>
       </c>
       <c r="P26" t="n">
-        <v>48.0573073368074</v>
+        <v>63.6926442724889</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.25726161558674</v>
+        <v>121.470580434636</v>
       </c>
       <c r="R26" t="n">
-        <v>28.97240833966653</v>
+        <v>49.71777919840058</v>
       </c>
       <c r="S26" t="n">
-        <v>54.4289759584782</v>
+        <v>72.01223763123593</v>
       </c>
       <c r="T26" t="n">
-        <v>44.70299959320383</v>
+        <v>180.9682926861849</v>
       </c>
       <c r="U26" t="n">
-        <v>44.65114130533084</v>
+        <v>48.86237822723389</v>
       </c>
       <c r="V26" t="n">
-        <v>17.1551322546212</v>
+        <v>80.0991123886586</v>
       </c>
       <c r="W26" t="n">
-        <v>41.18272466143242</v>
+        <v>58.73653326309516</v>
       </c>
       <c r="X26" t="n">
-        <v>28.66949218183585</v>
+        <v>84.1282214761394</v>
       </c>
       <c r="Y26" t="n">
-        <v>49.25317953476556</v>
+        <v>58.50315156309433</v>
       </c>
       <c r="Z26" t="n">
-        <v>67.86152157538969</v>
+        <v>37.62520484389194</v>
       </c>
       <c r="AA26" t="n">
-        <v>110.0351719341095</v>
+        <v>115.6562825437516</v>
       </c>
       <c r="AB26" t="n">
-        <v>104.6993939965234</v>
+        <v>125.1205662399242</v>
       </c>
       <c r="AC26" t="n">
-        <v>106.3265979333005</v>
+        <v>88.07127843274171</v>
       </c>
       <c r="AD26" t="n">
-        <v>150.6857929048559</v>
+        <v>133.9210308658717</v>
       </c>
       <c r="AE26" t="n">
-        <v>179.6024935872296</v>
+        <v>83.66335584052445</v>
       </c>
       <c r="AF26" t="n">
-        <v>127.1040734471686</v>
+        <v>114.2067914073564</v>
       </c>
       <c r="AG26" t="n">
-        <v>116.7330938952494</v>
+        <v>92.88220968332577</v>
       </c>
       <c r="AH26" t="n">
-        <v>131.0972211166897</v>
+        <v>119.4293509797706</v>
       </c>
       <c r="AI26" t="n">
-        <v>124.0409906548824</v>
+        <v>71.86824629602859</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20.53666856718272</v>
+        <v>146.0098360663522</v>
       </c>
       <c r="AK26" t="n">
-        <v>51.56673517557337</v>
+        <v>124.7469077883725</v>
       </c>
       <c r="AL26" t="n">
-        <v>31.52654262914659</v>
+        <v>31.0035057755343</v>
       </c>
       <c r="AM26" t="n">
-        <v>22.78447299020561</v>
+        <v>24.42658884415372</v>
       </c>
       <c r="AN26" t="n">
-        <v>31.34766387243757</v>
+        <v>38.97925772939874</v>
       </c>
       <c r="AO26" t="n">
-        <v>22.85283210238232</v>
+        <v>29.24393576635998</v>
       </c>
       <c r="AP26" t="n">
-        <v>30.39956705038665</v>
+        <v>31.17094968946452</v>
       </c>
       <c r="AQ26" t="n">
-        <v>30.07421485529502</v>
+        <v>20.59174699785452</v>
       </c>
       <c r="AR26" t="n">
-        <v>12.80003448939427</v>
+        <v>18.24644497282253</v>
       </c>
       <c r="AS26" t="n">
-        <v>21.85860420518392</v>
+        <v>25.76820357542727</v>
       </c>
       <c r="AT26" t="n">
-        <v>19.60372216188192</v>
+        <v>19.09824167490042</v>
       </c>
       <c r="AU26" t="n">
-        <v>12.00976322045402</v>
+        <v>14.58333688424062</v>
       </c>
       <c r="AV26" t="n">
-        <v>14.19535463638019</v>
+        <v>12.54126467753136</v>
       </c>
       <c r="AW26" t="n">
-        <v>27.49570906245691</v>
+        <v>10.08860828108285</v>
       </c>
       <c r="AX26" t="n">
-        <v>14.07272117614226</v>
+        <v>16.67753115270027</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>3.289583893203408</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.775556188932413</v>
+        <v>3.640780521702096</v>
       </c>
       <c r="E27" t="n">
-        <v>1.38593789425533</v>
+        <v>2.094340643569265</v>
       </c>
       <c r="F27" t="n">
-        <v>5.933807303811613</v>
+        <v>3.333368370444642</v>
       </c>
       <c r="G27" t="n">
-        <v>2.237776327204112</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.53534357125513</v>
+        <v>3.383167833628998</v>
       </c>
       <c r="I27" t="n">
-        <v>2.756818194533927</v>
+        <v>1.531263237597186</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3.863819457780441</v>
       </c>
       <c r="K27" t="n">
-        <v>7.760000126054474</v>
+        <v>4.314017667309678</v>
       </c>
       <c r="L27" t="n">
-        <v>9.864567595264319</v>
+        <v>2.597202876497816</v>
       </c>
       <c r="M27" t="n">
-        <v>5.312316209423611</v>
+        <v>1.818724458316928</v>
       </c>
       <c r="N27" t="n">
-        <v>2.01809427615342</v>
+        <v>5.174107320055963</v>
       </c>
       <c r="O27" t="n">
-        <v>13.36520450404111</v>
+        <v>2.011419114817711</v>
       </c>
       <c r="P27" t="n">
-        <v>1.97781762634969</v>
+        <v>6.60851884081388</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.100377480813807</v>
+        <v>4.198318299288162</v>
       </c>
       <c r="R27" t="n">
-        <v>0.8657804074813529</v>
+        <v>2.898041799444842</v>
       </c>
       <c r="S27" t="n">
-        <v>2.456563690148503</v>
+        <v>10.86861313685784</v>
       </c>
       <c r="T27" t="n">
-        <v>6.923631120255774</v>
+        <v>1.146431512073498</v>
       </c>
       <c r="U27" t="n">
-        <v>9.937861571918615</v>
+        <v>4.597527474681987</v>
       </c>
       <c r="V27" t="n">
-        <v>6.709120734962464</v>
+        <v>2.437294885466</v>
       </c>
       <c r="W27" t="n">
-        <v>3.224942353448035</v>
+        <v>2.5778909619174</v>
       </c>
       <c r="X27" t="n">
-        <v>3.840792302062514</v>
+        <v>2.563969749939115</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.223593530286176</v>
+        <v>4.90205806482132</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.543475065170647</v>
+        <v>2.84213481852492</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.065545749103128</v>
+        <v>2.231317797683268</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.570374158308804</v>
+        <v>4.881423687111533</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.016692514616518</v>
+        <v>5.904223196119698</v>
       </c>
       <c r="AD27" t="n">
-        <v>3.063926316474584</v>
+        <v>6.705914723144446</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.757374100874057</v>
+        <v>8.742524322511134</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.013856817437722</v>
+        <v>6.698575769895847</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.752781886756755</v>
+        <v>7.385490063515715</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.604563222487135</v>
+        <v>4.344465993311807</v>
       </c>
       <c r="AI27" t="n">
-        <v>11.68481748658769</v>
+        <v>7.451606189191477</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6.304508297769483</v>
+        <v>4.043240328502693</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.140664797267879</v>
+        <v>6.73166734877085</v>
       </c>
       <c r="AL27" t="n">
-        <v>6.230501524478088</v>
+        <v>6.051277032887474</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.781835803299483</v>
+        <v>3.730883561729246</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.277032801867713</v>
+        <v>8.584872728427801</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.282935192946118</v>
+        <v>5.35000961658484</v>
       </c>
       <c r="AP27" t="n">
-        <v>5.599371032566612</v>
+        <v>5.376764920660524</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.523497201418086</v>
+        <v>5.814573391771162</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.472115304333838</v>
+        <v>3.284008084999534</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.445922131619931</v>
+        <v>4.5497059034812</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.160728158273178</v>
+        <v>1.49472805079235</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.626655214633389</v>
+        <v>4.431828189528437</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.92493157510232</v>
+        <v>7.396839421322666</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.927214951125138</v>
+        <v>5.093610304421934</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.086280464032786</v>
+        <v>4.131908967154693</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>9.947596003081348</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>16.8286136985929</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.149077618431005</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>49.95496040757138</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>91.20083548951774</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2146285045026364</v>
+        <v>17.13716542569865</v>
       </c>
       <c r="I28" t="n">
-        <v>157.3845302524756</v>
+        <v>142.2528283763979</v>
       </c>
       <c r="J28" t="n">
-        <v>56.48280587563128</v>
+        <v>4.458473913661335</v>
       </c>
       <c r="K28" t="n">
-        <v>7.682545002711036</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>32.28971715514722</v>
+        <v>44.66207490240195</v>
       </c>
       <c r="M28" t="n">
-        <v>134.2284272266409</v>
+        <v>142.7047285399109</v>
       </c>
       <c r="N28" t="n">
-        <v>48.32907016738874</v>
+        <v>31.51855348472332</v>
       </c>
       <c r="O28" t="n">
-        <v>102.4323067133602</v>
+        <v>86.90299616876895</v>
       </c>
       <c r="P28" t="n">
-        <v>162.4164699249672</v>
+        <v>75.1740933833652</v>
       </c>
       <c r="Q28" t="n">
-        <v>110.4766458650814</v>
+        <v>49.5244809449833</v>
       </c>
       <c r="R28" t="n">
-        <v>75.94892632347509</v>
+        <v>43.22939622521022</v>
       </c>
       <c r="S28" t="n">
-        <v>58.39227673210326</v>
+        <v>77.89982759778545</v>
       </c>
       <c r="T28" t="n">
-        <v>58.94377140616987</v>
+        <v>45.15049992723263</v>
       </c>
       <c r="U28" t="n">
-        <v>43.93301523471838</v>
+        <v>64.30599307265641</v>
       </c>
       <c r="V28" t="n">
-        <v>31.38954611914827</v>
+        <v>69.26470499474698</v>
       </c>
       <c r="W28" t="n">
-        <v>41.02045304538768</v>
+        <v>53.47957135655248</v>
       </c>
       <c r="X28" t="n">
-        <v>53.15175451113662</v>
+        <v>65.76108623735958</v>
       </c>
       <c r="Y28" t="n">
-        <v>112.1127497716358</v>
+        <v>63.15200672446255</v>
       </c>
       <c r="Z28" t="n">
-        <v>63.58218116577687</v>
+        <v>52.68471659467774</v>
       </c>
       <c r="AA28" t="n">
-        <v>48.10893958531756</v>
+        <v>59.5922902158124</v>
       </c>
       <c r="AB28" t="n">
-        <v>79.4026355295936</v>
+        <v>88.69926785397624</v>
       </c>
       <c r="AC28" t="n">
-        <v>103.2979234681311</v>
+        <v>71.06151673898141</v>
       </c>
       <c r="AD28" t="n">
-        <v>105.0490216193105</v>
+        <v>91.12450880980836</v>
       </c>
       <c r="AE28" t="n">
-        <v>63.95255327074862</v>
+        <v>146.7277364300626</v>
       </c>
       <c r="AF28" t="n">
-        <v>36.91888188720043</v>
+        <v>54.34814637960918</v>
       </c>
       <c r="AG28" t="n">
-        <v>54.052542703718</v>
+        <v>57.61583339205895</v>
       </c>
       <c r="AH28" t="n">
-        <v>78.10111831876135</v>
+        <v>13.53454169704427</v>
       </c>
       <c r="AI28" t="n">
-        <v>38.70006143206864</v>
+        <v>104.1348041216232</v>
       </c>
       <c r="AJ28" t="n">
-        <v>38.58968003647462</v>
+        <v>78.30048778161549</v>
       </c>
       <c r="AK28" t="n">
-        <v>14.45811092106867</v>
+        <v>16.60941861600323</v>
       </c>
       <c r="AL28" t="n">
-        <v>15.74587438668862</v>
+        <v>31.33424917897008</v>
       </c>
       <c r="AM28" t="n">
-        <v>24.0963357883703</v>
+        <v>34.45682549242764</v>
       </c>
       <c r="AN28" t="n">
-        <v>29.74658499913892</v>
+        <v>28.14636046993799</v>
       </c>
       <c r="AO28" t="n">
-        <v>13.46577073700981</v>
+        <v>43.52171273137044</v>
       </c>
       <c r="AP28" t="n">
-        <v>5.167865940653022</v>
+        <v>22.84242725540853</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15.39749219680522</v>
+        <v>19.65584467467421</v>
       </c>
       <c r="AR28" t="n">
-        <v>10.40950886957591</v>
+        <v>16.1705976920064</v>
       </c>
       <c r="AS28" t="n">
-        <v>13.89838852295462</v>
+        <v>11.4209604188259</v>
       </c>
       <c r="AT28" t="n">
-        <v>11.50789056199782</v>
+        <v>14.09151631503386</v>
       </c>
       <c r="AU28" t="n">
-        <v>60.27819097278483</v>
+        <v>18.3754905231683</v>
       </c>
       <c r="AV28" t="n">
-        <v>7.739314700316857</v>
+        <v>2.581489412312146</v>
       </c>
       <c r="AW28" t="n">
-        <v>9.460419430167185</v>
+        <v>6.35819267725395</v>
       </c>
       <c r="AX28" t="n">
-        <v>8.880033249460343</v>
+        <v>12.24582999901711</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>27.67559115754569</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>21.59322773971554</v>
+        <v>10.05292886954354</v>
       </c>
       <c r="E29" t="n">
-        <v>8.015809882378873</v>
+        <v>48.73769091394298</v>
       </c>
       <c r="F29" t="n">
-        <v>29.37983847976711</v>
+        <v>24.38552325999533</v>
       </c>
       <c r="G29" t="n">
-        <v>57.56440715665036</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>20.75966515457739</v>
+        <v>69.19699076875962</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>88.22551298267879</v>
       </c>
       <c r="J29" t="n">
-        <v>2.140342972225186</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>38.13463048041834</v>
+        <v>3.33875686877922</v>
       </c>
       <c r="L29" t="n">
-        <v>20.11399505261921</v>
+        <v>39.92823336362035</v>
       </c>
       <c r="M29" t="n">
-        <v>38.01759758950561</v>
+        <v>34.01513465316486</v>
       </c>
       <c r="N29" t="n">
-        <v>31.44437029179802</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>16.42210510932391</v>
+        <v>168.2644860320129</v>
       </c>
       <c r="P29" t="n">
-        <v>80.46981933948496</v>
+        <v>214.1196514008297</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.47047137396746</v>
+        <v>105.6899653994308</v>
       </c>
       <c r="R29" t="n">
-        <v>116.0055531334128</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.82230690244595</v>
+        <v>99.76730285409022</v>
       </c>
       <c r="T29" t="n">
-        <v>27.45893702907417</v>
+        <v>49.91410813472524</v>
       </c>
       <c r="U29" t="n">
-        <v>87.49412553634727</v>
+        <v>45.73673861237745</v>
       </c>
       <c r="V29" t="n">
-        <v>10.67184734583662</v>
+        <v>28.29415516481913</v>
       </c>
       <c r="W29" t="n">
-        <v>37.72396313573419</v>
+        <v>2.09770877459305</v>
       </c>
       <c r="X29" t="n">
-        <v>54.07609221576583</v>
+        <v>35.29473753617366</v>
       </c>
       <c r="Y29" t="n">
-        <v>44.78978593761997</v>
+        <v>163.0130903020919</v>
       </c>
       <c r="Z29" t="n">
-        <v>26.68020857993091</v>
+        <v>8.191239529427399</v>
       </c>
       <c r="AA29" t="n">
-        <v>14.60916056179564</v>
+        <v>36.93787541729167</v>
       </c>
       <c r="AB29" t="n">
-        <v>69.03514509285404</v>
+        <v>15.7138188629816</v>
       </c>
       <c r="AC29" t="n">
-        <v>18.87295748649585</v>
+        <v>53.4757964235077</v>
       </c>
       <c r="AD29" t="n">
-        <v>21.37943948278215</v>
+        <v>28.93113792910933</v>
       </c>
       <c r="AE29" t="n">
-        <v>39.70781381644683</v>
+        <v>23.95020143723486</v>
       </c>
       <c r="AF29" t="n">
-        <v>11.07265981781246</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>33.85180557482751</v>
+        <v>19.42807524563706</v>
       </c>
       <c r="AH29" t="n">
-        <v>44.1902207005931</v>
+        <v>40.59337951472563</v>
       </c>
       <c r="AI29" t="n">
-        <v>6.811591373772766</v>
+        <v>37.69078550369187</v>
       </c>
       <c r="AJ29" t="n">
-        <v>74.30651806259861</v>
+        <v>32.35170912145923</v>
       </c>
       <c r="AK29" t="n">
-        <v>54.73367532326925</v>
+        <v>36.58410612221864</v>
       </c>
       <c r="AL29" t="n">
-        <v>22.70676824398583</v>
+        <v>14.6640996631825</v>
       </c>
       <c r="AM29" t="n">
-        <v>48.97282662458097</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>45.51752799722097</v>
+        <v>42.55291903197833</v>
       </c>
       <c r="AO29" t="n">
-        <v>20.30294277717026</v>
+        <v>29.07409816340798</v>
       </c>
       <c r="AP29" t="n">
-        <v>6.658355992892526</v>
+        <v>22.01606422291817</v>
       </c>
       <c r="AQ29" t="n">
-        <v>45.7531048158063</v>
+        <v>22.738920819514</v>
       </c>
       <c r="AR29" t="n">
-        <v>27.88846551472202</v>
+        <v>1.980947747471311</v>
       </c>
       <c r="AS29" t="n">
-        <v>6.934078199487071</v>
+        <v>27.53577530794881</v>
       </c>
       <c r="AT29" t="n">
-        <v>9.087279091303758</v>
+        <v>17.07532078934395</v>
       </c>
       <c r="AU29" t="n">
-        <v>26.27636202479532</v>
+        <v>34.2929465318561</v>
       </c>
       <c r="AV29" t="n">
-        <v>1.726137560908707</v>
+        <v>1.056617365000848</v>
       </c>
       <c r="AW29" t="n">
-        <v>23.6627369885184</v>
+        <v>2.257241156825256</v>
       </c>
       <c r="AX29" t="n">
-        <v>24.2837613966685</v>
+        <v>11.89853810425018</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>4.213604872815525</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>12.8086004647132</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>3.073566459310224</v>
+        <v>0.7133519599196259</v>
       </c>
       <c r="F30" t="n">
-        <v>7.632818797503981</v>
+        <v>4.316676388405471</v>
       </c>
       <c r="G30" t="n">
-        <v>14.55478744375424</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>6.986359148851772</v>
+        <v>3.75555663268513</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.573497207180466</v>
       </c>
       <c r="J30" t="n">
-        <v>79.54509812009076</v>
+        <v>12.17607679168817</v>
       </c>
       <c r="K30" t="n">
-        <v>30.05519112085989</v>
+        <v>4.368526947675081</v>
       </c>
       <c r="L30" t="n">
-        <v>117.9690928128515</v>
+        <v>40.4856524270443</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>26.7187933265478</v>
       </c>
       <c r="N30" t="n">
-        <v>28.43521613556784</v>
+        <v>60.59041069559828</v>
       </c>
       <c r="O30" t="n">
-        <v>23.70404620373235</v>
+        <v>28.99431731393813</v>
       </c>
       <c r="P30" t="n">
-        <v>7.393852102206488</v>
+        <v>28.16213848983305</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.53525570644683</v>
+        <v>70.43184045672072</v>
       </c>
       <c r="R30" t="n">
-        <v>6.996286969910186</v>
+        <v>21.27527103304943</v>
       </c>
       <c r="S30" t="n">
-        <v>59.84934458391688</v>
+        <v>57.03926509181714</v>
       </c>
       <c r="T30" t="n">
-        <v>23.42184899407444</v>
+        <v>4.079078423259707</v>
       </c>
       <c r="U30" t="n">
-        <v>35.77547147103867</v>
+        <v>25.34013848381533</v>
       </c>
       <c r="V30" t="n">
-        <v>15.9505448422686</v>
+        <v>3.597862615875378</v>
       </c>
       <c r="W30" t="n">
-        <v>27.98614643400834</v>
+        <v>25.08262100647896</v>
       </c>
       <c r="X30" t="n">
-        <v>35.80833907713601</v>
+        <v>16.83580490757155</v>
       </c>
       <c r="Y30" t="n">
-        <v>23.07655881570144</v>
+        <v>13.05637137905051</v>
       </c>
       <c r="Z30" t="n">
-        <v>39.17751911036174</v>
+        <v>12.70258139329139</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.9856768915664</v>
+        <v>16.35520219171079</v>
       </c>
       <c r="AB30" t="n">
-        <v>12.5479241180483</v>
+        <v>19.50693560247851</v>
       </c>
       <c r="AC30" t="n">
-        <v>25.64687653727123</v>
+        <v>16.96739512077975</v>
       </c>
       <c r="AD30" t="n">
-        <v>17.76769579308056</v>
+        <v>9.739351766725246</v>
       </c>
       <c r="AE30" t="n">
-        <v>21.62422390293301</v>
+        <v>9.874291532251176</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.31386586633151</v>
+        <v>17.23994712729142</v>
       </c>
       <c r="AG30" t="n">
-        <v>17.71158785079793</v>
+        <v>15.56324805298179</v>
       </c>
       <c r="AH30" t="n">
-        <v>5.860530508486891</v>
+        <v>5.766953447354046</v>
       </c>
       <c r="AI30" t="n">
-        <v>12.01004648170485</v>
+        <v>11.34740396370076</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23.04252555168379</v>
+        <v>14.7528163363975</v>
       </c>
       <c r="AK30" t="n">
-        <v>4.893617259462566</v>
+        <v>4.430007748591152</v>
       </c>
       <c r="AL30" t="n">
-        <v>22.74489937936934</v>
+        <v>10.65904162085038</v>
       </c>
       <c r="AM30" t="n">
-        <v>3.776589938886004</v>
+        <v>3.144619666202853</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.6020175339494487</v>
+        <v>6.120968251525881</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.657112133536981</v>
+        <v>6.16400863251177</v>
       </c>
       <c r="AP30" t="n">
-        <v>5.939690057212599</v>
+        <v>2.425451456596452</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.866404025197069</v>
+        <v>3.468667885079773</v>
       </c>
       <c r="AR30" t="n">
-        <v>5.665487821706808</v>
+        <v>2.161367187518054</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.19802489709005</v>
+        <v>2.470185433480173</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.447636424417149</v>
+        <v>0.299360655344025</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.242768132515917</v>
+        <v>0.03653100557976519</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.647063064397013</v>
+        <v>2.015227787970543</v>
       </c>
       <c r="AW30" t="n">
-        <v>1.762383648499387</v>
+        <v>7.163553783935686</v>
       </c>
       <c r="AX30" t="n">
-        <v>2.379038033894174</v>
+        <v>0.3110444805205016</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>8.414600850752153</v>
+        <v>21.77285027495142</v>
       </c>
       <c r="D31" t="n">
-        <v>1.653706746429269</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>5.349088912700457</v>
+        <v>4.73408751131895</v>
       </c>
       <c r="F31" t="n">
-        <v>5.021723684270772</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>19.88215956545071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.055289521894964</v>
+        <v>21.06901489959196</v>
       </c>
       <c r="I31" t="n">
-        <v>36.85741357433766</v>
+        <v>46.48816210449313</v>
       </c>
       <c r="J31" t="n">
-        <v>8.926090294237543</v>
+        <v>28.85914140281513</v>
       </c>
       <c r="K31" t="n">
-        <v>68.5479612475829</v>
+        <v>23.65817774159504</v>
       </c>
       <c r="L31" t="n">
-        <v>30.34200702535631</v>
+        <v>22.09958416690549</v>
       </c>
       <c r="M31" t="n">
-        <v>27.86141270525574</v>
+        <v>14.42491257111447</v>
       </c>
       <c r="N31" t="n">
-        <v>65.05568636213287</v>
+        <v>103.4093500253878</v>
       </c>
       <c r="O31" t="n">
-        <v>50.36172632979206</v>
+        <v>14.84009741891203</v>
       </c>
       <c r="P31" t="n">
-        <v>122.8411563670811</v>
+        <v>58.01677492058367</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.7741863093929</v>
+        <v>53.00834881291992</v>
       </c>
       <c r="R31" t="n">
-        <v>49.29206654258131</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>42.43952418128512</v>
+        <v>14.4831215019415</v>
       </c>
       <c r="T31" t="n">
-        <v>13.09603494141782</v>
+        <v>21.01748404089439</v>
       </c>
       <c r="U31" t="n">
-        <v>31.95416865499916</v>
+        <v>16.8766180413805</v>
       </c>
       <c r="V31" t="n">
-        <v>40.83189394020398</v>
+        <v>46.25193368060259</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>32.24327612942741</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.57559162298424</v>
+        <v>41.66083977003237</v>
       </c>
       <c r="Z31" t="n">
-        <v>5.567483918923124</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.437199043507317</v>
+        <v>21.43741827705378</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>33.16971626949648</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.86822587069667</v>
+        <v>3.494463268556847</v>
       </c>
       <c r="AD31" t="n">
-        <v>15.87933758579255</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>2.066950242888382</v>
+        <v>6.534153010735833</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>26.65014047297463</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.05201290405901</v>
+        <v>37.4741742738977</v>
       </c>
       <c r="AH31" t="n">
-        <v>14.02008117799187</v>
+        <v>5.469073932829971</v>
       </c>
       <c r="AI31" t="n">
-        <v>37.36322574218281</v>
+        <v>4.7111301507937</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3.499292569716263</v>
+        <v>3.839044056436502</v>
       </c>
       <c r="AK31" t="n">
-        <v>4.813154748707065</v>
+        <v>6.50575158454784</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>7.587155553512137</v>
       </c>
       <c r="AM31" t="n">
-        <v>7.697409967618448</v>
+        <v>4.496150546543703</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.947452854193655</v>
+        <v>3.398102918334424</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>6.763996656925009</v>
       </c>
       <c r="AP31" t="n">
-        <v>22.81652146801472</v>
+        <v>23.31179261047554</v>
       </c>
       <c r="AQ31" t="n">
-        <v>8.303304096920954</v>
+        <v>18.37112294529297</v>
       </c>
       <c r="AR31" t="n">
-        <v>12.38884464510839</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>4.779754141185252</v>
+        <v>8.599347345292982</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>21.24712090261578</v>
       </c>
       <c r="AU31" t="n">
-        <v>2.090322064763773</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>8.054651126022415</v>
+        <v>5.193713606874313</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.952651771796862</v>
+        <v>0.1570368952406695</v>
       </c>
       <c r="AX31" t="n">
-        <v>6.874695371320092</v>
+        <v>9.821372997886071</v>
       </c>
     </row>
   </sheetData>
